--- a/Desarrollo/Data/R2_3_final_07_02.xlsx
+++ b/Desarrollo/Data/R2_3_final_07_02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Trabajo operativa\IO-Revalidas\Desarrollo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigación operativa\Trabajo operativa\IO-Revalidas\IO-Revalidas\Desarrollo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Reválidas-RCA 23014" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="13">
   <si>
     <t>nro_solicitud</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>S96</t>
-  </si>
-  <si>
-    <t>S97</t>
-  </si>
-  <si>
-    <t>S98</t>
   </si>
 </sst>
 </file>
@@ -462,18 +456,18 @@
   <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M125"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="25" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="25" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +516,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -571,7 +565,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -620,7 +614,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -669,7 +663,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -718,7 +712,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -767,7 +761,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -816,7 +810,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -865,7 +859,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -914,7 +908,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -963,7 +957,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1012,7 +1006,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1061,7 +1055,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1110,7 +1104,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1159,7 +1153,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1208,7 +1202,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1257,7 +1251,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1306,7 +1300,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1355,7 +1349,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1404,7 +1398,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1453,7 +1447,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1502,7 +1496,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1551,7 +1545,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1600,7 +1594,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1649,7 +1643,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1698,7 +1692,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1747,7 +1741,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1796,7 +1790,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1845,7 +1839,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1894,7 +1888,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1943,7 +1937,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1992,7 +1986,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2041,7 +2035,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2090,7 +2084,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2139,7 +2133,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2188,7 +2182,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2237,7 +2231,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2286,7 +2280,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2335,7 +2329,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2384,7 +2378,7 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2433,7 +2427,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2482,7 +2476,7 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2531,7 +2525,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2580,7 +2574,7 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2629,7 +2623,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2678,7 +2672,7 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2727,7 +2721,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2776,7 +2770,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2825,7 +2819,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2874,7 +2868,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2923,7 +2917,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2972,7 +2966,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3021,7 +3015,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3070,7 +3064,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3119,7 +3113,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3168,7 +3162,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3217,7 +3211,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3266,7 +3260,7 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3315,7 +3309,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3364,7 +3358,7 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3384,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>1</v>
@@ -3413,7 +3407,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3433,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H61" s="1" t="b">
         <v>1</v>
@@ -3462,7 +3456,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3482,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>1</v>
@@ -3511,7 +3505,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3560,7 +3554,7 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3609,7 +3603,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3658,7 +3652,7 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3707,7 +3701,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3756,7 +3750,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3805,7 +3799,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3854,7 +3848,7 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3903,7 +3897,7 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3952,7 +3946,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4001,7 +3995,7 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4050,7 +4044,7 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4099,7 +4093,7 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4148,7 +4142,7 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4197,7 +4191,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4246,7 +4240,7 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4295,7 +4289,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4344,7 +4338,7 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4393,7 +4387,7 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4442,7 +4436,7 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4491,7 +4485,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4540,7 +4534,7 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4589,7 +4583,7 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4638,7 +4632,7 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4687,7 +4681,7 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4736,7 +4730,7 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4785,7 +4779,7 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4834,7 +4828,7 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4883,7 +4877,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4932,7 +4926,7 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4981,7 +4975,7 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5030,7 +5024,7 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5079,7 +5073,7 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5128,7 +5122,7 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5177,7 +5171,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5226,7 +5220,7 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -5275,7 +5269,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -5324,7 +5318,7 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -5373,7 +5367,7 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -5422,7 +5416,7 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -5471,7 +5465,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -5520,7 +5514,7 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -5569,7 +5563,7 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -5618,7 +5612,7 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -5667,7 +5661,7 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -5716,7 +5710,7 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -5765,7 +5759,7 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -5814,7 +5808,7 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>110</v>
       </c>
@@ -5863,7 +5857,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>111</v>
       </c>
@@ -5912,7 +5906,7 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>112</v>
       </c>
@@ -5961,7 +5955,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>113</v>
       </c>
@@ -6010,7 +6004,7 @@
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>114</v>
       </c>
@@ -6059,7 +6053,7 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>115</v>
       </c>
@@ -6108,7 +6102,7 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>116</v>
       </c>
@@ -6157,7 +6151,7 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>117</v>
       </c>
@@ -6206,7 +6200,7 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>118</v>
       </c>
@@ -6255,7 +6249,7 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>119</v>
       </c>
@@ -6304,7 +6298,7 @@
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>120</v>
       </c>
@@ -6353,7 +6347,7 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>121</v>
       </c>
@@ -6402,7 +6396,7 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>122</v>
       </c>
@@ -6451,7 +6445,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>123</v>
       </c>
@@ -6500,7 +6494,7 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>124</v>
       </c>
@@ -6549,7 +6543,7 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>125</v>
       </c>
@@ -6598,7 +6592,7 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6625,7 +6619,7 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6652,7 +6646,7 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6679,7 +6673,7 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6706,7 +6700,7 @@
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6733,7 +6727,7 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6760,7 +6754,7 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6787,7 +6781,7 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6814,7 +6808,7 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -6841,7 +6835,7 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -6868,7 +6862,7 @@
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -6895,7 +6889,7 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -6922,7 +6916,7 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -6949,7 +6943,7 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -6976,7 +6970,7 @@
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -7003,7 +6997,7 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -7030,7 +7024,7 @@
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -7057,7 +7051,7 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -7084,7 +7078,7 @@
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7111,7 +7105,7 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -7138,7 +7132,7 @@
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -7165,7 +7159,7 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -7192,7 +7186,7 @@
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -7219,7 +7213,7 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -7246,7 +7240,7 @@
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -7273,7 +7267,7 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -7300,7 +7294,7 @@
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -7327,7 +7321,7 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -7354,7 +7348,7 @@
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -7381,7 +7375,7 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -7408,7 +7402,7 @@
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -7435,7 +7429,7 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -7462,7 +7456,7 @@
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -7489,7 +7483,7 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -7516,7 +7510,7 @@
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -7543,7 +7537,7 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -7570,7 +7564,7 @@
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -7597,7 +7591,7 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -7624,7 +7618,7 @@
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -7651,7 +7645,7 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -7678,7 +7672,7 @@
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -7705,7 +7699,7 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -7732,7 +7726,7 @@
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -7759,7 +7753,7 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -7786,7 +7780,7 @@
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -7813,7 +7807,7 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -7840,7 +7834,7 @@
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -7867,7 +7861,7 @@
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -7894,7 +7888,7 @@
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -7921,7 +7915,7 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -7948,7 +7942,7 @@
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -7975,7 +7969,7 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -8002,7 +7996,7 @@
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -8029,7 +8023,7 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -8056,7 +8050,7 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -8083,7 +8077,7 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -8110,7 +8104,7 @@
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -8137,7 +8131,7 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -8164,7 +8158,7 @@
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -8191,7 +8185,7 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -8218,7 +8212,7 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -8245,7 +8239,7 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -8272,7 +8266,7 @@
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -8299,7 +8293,7 @@
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -8326,7 +8320,7 @@
       <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -8353,7 +8347,7 @@
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -8380,7 +8374,7 @@
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -8407,7 +8401,7 @@
       <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -8434,7 +8428,7 @@
       <c r="X193" s="3"/>
       <c r="Y193" s="3"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -8461,7 +8455,7 @@
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -8488,7 +8482,7 @@
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -8515,7 +8509,7 @@
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -8542,7 +8536,7 @@
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -8569,7 +8563,7 @@
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -8596,7 +8590,7 @@
       <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -8623,7 +8617,7 @@
       <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -8650,7 +8644,7 @@
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -8677,7 +8671,7 @@
       <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -8704,7 +8698,7 @@
       <c r="X203" s="3"/>
       <c r="Y203" s="3"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -8731,7 +8725,7 @@
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -8758,7 +8752,7 @@
       <c r="X205" s="3"/>
       <c r="Y205" s="3"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -8785,7 +8779,7 @@
       <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -8812,7 +8806,7 @@
       <c r="X207" s="3"/>
       <c r="Y207" s="3"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -8839,7 +8833,7 @@
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -8866,7 +8860,7 @@
       <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -8893,7 +8887,7 @@
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -8920,7 +8914,7 @@
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -8947,7 +8941,7 @@
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -8974,7 +8968,7 @@
       <c r="X213" s="3"/>
       <c r="Y213" s="3"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -9001,7 +8995,7 @@
       <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -9028,7 +9022,7 @@
       <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -9055,7 +9049,7 @@
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -9082,7 +9076,7 @@
       <c r="X217" s="3"/>
       <c r="Y217" s="3"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -9109,7 +9103,7 @@
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -9136,7 +9130,7 @@
       <c r="X219" s="3"/>
       <c r="Y219" s="3"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -9163,7 +9157,7 @@
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -9190,7 +9184,7 @@
       <c r="X221" s="3"/>
       <c r="Y221" s="3"/>
     </row>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -9217,7 +9211,7 @@
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
     </row>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -9244,7 +9238,7 @@
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
     </row>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -9271,7 +9265,7 @@
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
     </row>
-    <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -9298,7 +9292,7 @@
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
     </row>
-    <row r="226" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -9325,7 +9319,7 @@
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
     </row>
-    <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -9352,7 +9346,7 @@
       <c r="X227" s="3"/>
       <c r="Y227" s="3"/>
     </row>
-    <row r="228" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -9379,7 +9373,7 @@
       <c r="X228" s="3"/>
       <c r="Y228" s="3"/>
     </row>
-    <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -9406,7 +9400,7 @@
       <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
     </row>
-    <row r="230" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -9433,7 +9427,7 @@
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
     </row>
-    <row r="231" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -9460,7 +9454,7 @@
       <c r="X231" s="3"/>
       <c r="Y231" s="3"/>
     </row>
-    <row r="232" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -9487,7 +9481,7 @@
       <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
     </row>
-    <row r="233" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -9514,7 +9508,7 @@
       <c r="X233" s="3"/>
       <c r="Y233" s="3"/>
     </row>
-    <row r="234" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -9541,7 +9535,7 @@
       <c r="X234" s="3"/>
       <c r="Y234" s="3"/>
     </row>
-    <row r="235" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -9568,7 +9562,7 @@
       <c r="X235" s="3"/>
       <c r="Y235" s="3"/>
     </row>
-    <row r="236" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -9595,7 +9589,7 @@
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
     </row>
-    <row r="237" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -9622,7 +9616,7 @@
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
     </row>
-    <row r="238" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -9649,7 +9643,7 @@
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
     </row>
-    <row r="239" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -9676,7 +9670,7 @@
       <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
     </row>
-    <row r="240" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -9703,7 +9697,7 @@
       <c r="X240" s="3"/>
       <c r="Y240" s="3"/>
     </row>
-    <row r="241" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -9730,7 +9724,7 @@
       <c r="X241" s="3"/>
       <c r="Y241" s="3"/>
     </row>
-    <row r="242" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -9757,7 +9751,7 @@
       <c r="X242" s="3"/>
       <c r="Y242" s="3"/>
     </row>
-    <row r="243" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -9784,7 +9778,7 @@
       <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
     </row>
-    <row r="244" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -9811,7 +9805,7 @@
       <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
     </row>
-    <row r="245" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -9838,7 +9832,7 @@
       <c r="X245" s="3"/>
       <c r="Y245" s="3"/>
     </row>
-    <row r="246" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -9865,7 +9859,7 @@
       <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
     </row>
-    <row r="247" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -9892,7 +9886,7 @@
       <c r="X247" s="3"/>
       <c r="Y247" s="3"/>
     </row>
-    <row r="248" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -9919,7 +9913,7 @@
       <c r="X248" s="3"/>
       <c r="Y248" s="3"/>
     </row>
-    <row r="249" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -9946,7 +9940,7 @@
       <c r="X249" s="3"/>
       <c r="Y249" s="3"/>
     </row>
-    <row r="250" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -9973,7 +9967,7 @@
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
     </row>
-    <row r="251" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -10000,7 +9994,7 @@
       <c r="X251" s="3"/>
       <c r="Y251" s="3"/>
     </row>
-    <row r="252" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -10027,7 +10021,7 @@
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
     </row>
-    <row r="253" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -10054,7 +10048,7 @@
       <c r="X253" s="3"/>
       <c r="Y253" s="3"/>
     </row>
-    <row r="254" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -10081,7 +10075,7 @@
       <c r="X254" s="3"/>
       <c r="Y254" s="3"/>
     </row>
-    <row r="255" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -10108,7 +10102,7 @@
       <c r="X255" s="3"/>
       <c r="Y255" s="3"/>
     </row>
-    <row r="256" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -10135,7 +10129,7 @@
       <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
     </row>
-    <row r="257" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -10162,7 +10156,7 @@
       <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
     </row>
-    <row r="258" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -10189,7 +10183,7 @@
       <c r="X258" s="3"/>
       <c r="Y258" s="3"/>
     </row>
-    <row r="259" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -10216,7 +10210,7 @@
       <c r="X259" s="3"/>
       <c r="Y259" s="3"/>
     </row>
-    <row r="260" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -10243,7 +10237,7 @@
       <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
     </row>
-    <row r="261" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -10270,7 +10264,7 @@
       <c r="X261" s="3"/>
       <c r="Y261" s="3"/>
     </row>
-    <row r="262" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -10297,7 +10291,7 @@
       <c r="X262" s="3"/>
       <c r="Y262" s="3"/>
     </row>
-    <row r="263" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -10324,7 +10318,7 @@
       <c r="X263" s="3"/>
       <c r="Y263" s="3"/>
     </row>
-    <row r="264" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -10351,7 +10345,7 @@
       <c r="X264" s="3"/>
       <c r="Y264" s="3"/>
     </row>
-    <row r="265" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -10378,7 +10372,7 @@
       <c r="X265" s="3"/>
       <c r="Y265" s="3"/>
     </row>
-    <row r="266" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -10405,7 +10399,7 @@
       <c r="X266" s="3"/>
       <c r="Y266" s="3"/>
     </row>
-    <row r="267" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -10432,7 +10426,7 @@
       <c r="X267" s="3"/>
       <c r="Y267" s="3"/>
     </row>
-    <row r="268" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -10459,7 +10453,7 @@
       <c r="X268" s="3"/>
       <c r="Y268" s="3"/>
     </row>
-    <row r="269" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -10486,7 +10480,7 @@
       <c r="X269" s="3"/>
       <c r="Y269" s="3"/>
     </row>
-    <row r="270" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -10513,7 +10507,7 @@
       <c r="X270" s="3"/>
       <c r="Y270" s="3"/>
     </row>
-    <row r="271" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -10540,7 +10534,7 @@
       <c r="X271" s="3"/>
       <c r="Y271" s="3"/>
     </row>
-    <row r="272" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -10567,7 +10561,7 @@
       <c r="X272" s="3"/>
       <c r="Y272" s="3"/>
     </row>
-    <row r="273" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -10594,7 +10588,7 @@
       <c r="X273" s="3"/>
       <c r="Y273" s="3"/>
     </row>
-    <row r="274" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -10621,7 +10615,7 @@
       <c r="X274" s="3"/>
       <c r="Y274" s="3"/>
     </row>
-    <row r="275" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -10648,7 +10642,7 @@
       <c r="X275" s="3"/>
       <c r="Y275" s="3"/>
     </row>
-    <row r="276" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -10675,7 +10669,7 @@
       <c r="X276" s="3"/>
       <c r="Y276" s="3"/>
     </row>
-    <row r="277" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -10702,7 +10696,7 @@
       <c r="X277" s="3"/>
       <c r="Y277" s="3"/>
     </row>
-    <row r="278" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -10729,7 +10723,7 @@
       <c r="X278" s="3"/>
       <c r="Y278" s="3"/>
     </row>
-    <row r="279" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -10756,7 +10750,7 @@
       <c r="X279" s="3"/>
       <c r="Y279" s="3"/>
     </row>
-    <row r="280" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -10783,7 +10777,7 @@
       <c r="X280" s="3"/>
       <c r="Y280" s="3"/>
     </row>
-    <row r="281" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -10810,7 +10804,7 @@
       <c r="X281" s="3"/>
       <c r="Y281" s="3"/>
     </row>
-    <row r="282" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -10837,7 +10831,7 @@
       <c r="X282" s="3"/>
       <c r="Y282" s="3"/>
     </row>
-    <row r="283" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -10864,7 +10858,7 @@
       <c r="X283" s="3"/>
       <c r="Y283" s="3"/>
     </row>
-    <row r="284" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -10891,7 +10885,7 @@
       <c r="X284" s="3"/>
       <c r="Y284" s="3"/>
     </row>
-    <row r="285" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -10918,7 +10912,7 @@
       <c r="X285" s="3"/>
       <c r="Y285" s="3"/>
     </row>
-    <row r="286" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -10945,7 +10939,7 @@
       <c r="X286" s="3"/>
       <c r="Y286" s="3"/>
     </row>
-    <row r="287" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -10972,7 +10966,7 @@
       <c r="X287" s="3"/>
       <c r="Y287" s="3"/>
     </row>
-    <row r="288" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -10999,7 +10993,7 @@
       <c r="X288" s="3"/>
       <c r="Y288" s="3"/>
     </row>
-    <row r="289" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -11026,7 +11020,7 @@
       <c r="X289" s="3"/>
       <c r="Y289" s="3"/>
     </row>
-    <row r="290" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -11053,7 +11047,7 @@
       <c r="X290" s="3"/>
       <c r="Y290" s="3"/>
     </row>
-    <row r="291" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -11080,7 +11074,7 @@
       <c r="X291" s="3"/>
       <c r="Y291" s="3"/>
     </row>
-    <row r="292" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -11107,7 +11101,7 @@
       <c r="X292" s="3"/>
       <c r="Y292" s="3"/>
     </row>
-    <row r="293" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -11134,7 +11128,7 @@
       <c r="X293" s="3"/>
       <c r="Y293" s="3"/>
     </row>
-    <row r="294" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -11161,7 +11155,7 @@
       <c r="X294" s="3"/>
       <c r="Y294" s="3"/>
     </row>
-    <row r="295" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -11188,7 +11182,7 @@
       <c r="X295" s="3"/>
       <c r="Y295" s="3"/>
     </row>
-    <row r="296" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -11215,7 +11209,7 @@
       <c r="X296" s="3"/>
       <c r="Y296" s="3"/>
     </row>
-    <row r="297" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -11242,7 +11236,7 @@
       <c r="X297" s="3"/>
       <c r="Y297" s="3"/>
     </row>
-    <row r="298" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -11269,7 +11263,7 @@
       <c r="X298" s="3"/>
       <c r="Y298" s="3"/>
     </row>
-    <row r="299" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -11296,7 +11290,7 @@
       <c r="X299" s="3"/>
       <c r="Y299" s="3"/>
     </row>
-    <row r="300" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -11323,7 +11317,7 @@
       <c r="X300" s="3"/>
       <c r="Y300" s="3"/>
     </row>
-    <row r="301" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -11350,7 +11344,7 @@
       <c r="X301" s="3"/>
       <c r="Y301" s="3"/>
     </row>
-    <row r="302" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -11377,7 +11371,7 @@
       <c r="X302" s="3"/>
       <c r="Y302" s="3"/>
     </row>
-    <row r="303" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -11404,7 +11398,7 @@
       <c r="X303" s="3"/>
       <c r="Y303" s="3"/>
     </row>
-    <row r="304" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -11431,7 +11425,7 @@
       <c r="X304" s="3"/>
       <c r="Y304" s="3"/>
     </row>
-    <row r="305" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -11458,7 +11452,7 @@
       <c r="X305" s="3"/>
       <c r="Y305" s="3"/>
     </row>
-    <row r="306" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -11485,7 +11479,7 @@
       <c r="X306" s="3"/>
       <c r="Y306" s="3"/>
     </row>
-    <row r="307" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -11512,7 +11506,7 @@
       <c r="X307" s="3"/>
       <c r="Y307" s="3"/>
     </row>
-    <row r="308" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -11539,7 +11533,7 @@
       <c r="X308" s="3"/>
       <c r="Y308" s="3"/>
     </row>
-    <row r="309" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -11566,7 +11560,7 @@
       <c r="X309" s="3"/>
       <c r="Y309" s="3"/>
     </row>
-    <row r="310" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -11593,7 +11587,7 @@
       <c r="X310" s="3"/>
       <c r="Y310" s="3"/>
     </row>
-    <row r="311" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -11620,7 +11614,7 @@
       <c r="X311" s="3"/>
       <c r="Y311" s="3"/>
     </row>
-    <row r="312" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -11647,7 +11641,7 @@
       <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
     </row>
-    <row r="313" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -11674,7 +11668,7 @@
       <c r="X313" s="3"/>
       <c r="Y313" s="3"/>
     </row>
-    <row r="314" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -11701,7 +11695,7 @@
       <c r="X314" s="3"/>
       <c r="Y314" s="3"/>
     </row>
-    <row r="315" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -11728,7 +11722,7 @@
       <c r="X315" s="3"/>
       <c r="Y315" s="3"/>
     </row>
-    <row r="316" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -11755,7 +11749,7 @@
       <c r="X316" s="3"/>
       <c r="Y316" s="3"/>
     </row>
-    <row r="317" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -11782,7 +11776,7 @@
       <c r="X317" s="3"/>
       <c r="Y317" s="3"/>
     </row>
-    <row r="318" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -11809,7 +11803,7 @@
       <c r="X318" s="3"/>
       <c r="Y318" s="3"/>
     </row>
-    <row r="319" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -11836,7 +11830,7 @@
       <c r="X319" s="3"/>
       <c r="Y319" s="3"/>
     </row>
-    <row r="320" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -11863,7 +11857,7 @@
       <c r="X320" s="3"/>
       <c r="Y320" s="3"/>
     </row>
-    <row r="321" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -11890,7 +11884,7 @@
       <c r="X321" s="3"/>
       <c r="Y321" s="3"/>
     </row>
-    <row r="322" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -11917,7 +11911,7 @@
       <c r="X322" s="3"/>
       <c r="Y322" s="3"/>
     </row>
-    <row r="323" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -11944,7 +11938,7 @@
       <c r="X323" s="3"/>
       <c r="Y323" s="3"/>
     </row>
-    <row r="324" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -11971,7 +11965,7 @@
       <c r="X324" s="3"/>
       <c r="Y324" s="3"/>
     </row>
-    <row r="325" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -11998,7 +11992,7 @@
       <c r="X325" s="3"/>
       <c r="Y325" s="3"/>
     </row>
-    <row r="326" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -12025,7 +12019,7 @@
       <c r="X326" s="3"/>
       <c r="Y326" s="3"/>
     </row>
-    <row r="327" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -12052,7 +12046,7 @@
       <c r="X327" s="3"/>
       <c r="Y327" s="3"/>
     </row>
-    <row r="328" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -12079,7 +12073,7 @@
       <c r="X328" s="3"/>
       <c r="Y328" s="3"/>
     </row>
-    <row r="329" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -12106,7 +12100,7 @@
       <c r="X329" s="3"/>
       <c r="Y329" s="3"/>
     </row>
-    <row r="330" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -12133,7 +12127,7 @@
       <c r="X330" s="3"/>
       <c r="Y330" s="3"/>
     </row>
-    <row r="331" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -12160,7 +12154,7 @@
       <c r="X331" s="3"/>
       <c r="Y331" s="3"/>
     </row>
-    <row r="332" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -12187,7 +12181,7 @@
       <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
     </row>
-    <row r="333" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -12214,7 +12208,7 @@
       <c r="X333" s="3"/>
       <c r="Y333" s="3"/>
     </row>
-    <row r="334" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -12241,7 +12235,7 @@
       <c r="X334" s="3"/>
       <c r="Y334" s="3"/>
     </row>
-    <row r="335" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -12268,7 +12262,7 @@
       <c r="X335" s="3"/>
       <c r="Y335" s="3"/>
     </row>
-    <row r="336" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -12295,7 +12289,7 @@
       <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
     </row>
-    <row r="337" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -12322,7 +12316,7 @@
       <c r="X337" s="3"/>
       <c r="Y337" s="3"/>
     </row>
-    <row r="338" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -12349,7 +12343,7 @@
       <c r="X338" s="3"/>
       <c r="Y338" s="3"/>
     </row>
-    <row r="339" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -12376,7 +12370,7 @@
       <c r="X339" s="3"/>
       <c r="Y339" s="3"/>
     </row>
-    <row r="340" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -12403,7 +12397,7 @@
       <c r="X340" s="3"/>
       <c r="Y340" s="3"/>
     </row>
-    <row r="341" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -12430,7 +12424,7 @@
       <c r="X341" s="3"/>
       <c r="Y341" s="3"/>
     </row>
-    <row r="342" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -12457,7 +12451,7 @@
       <c r="X342" s="3"/>
       <c r="Y342" s="3"/>
     </row>
-    <row r="343" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -12484,7 +12478,7 @@
       <c r="X343" s="3"/>
       <c r="Y343" s="3"/>
     </row>
-    <row r="344" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -12511,7 +12505,7 @@
       <c r="X344" s="3"/>
       <c r="Y344" s="3"/>
     </row>
-    <row r="345" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -12538,7 +12532,7 @@
       <c r="X345" s="3"/>
       <c r="Y345" s="3"/>
     </row>
-    <row r="346" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -12565,7 +12559,7 @@
       <c r="X346" s="3"/>
       <c r="Y346" s="3"/>
     </row>
-    <row r="347" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -12592,7 +12586,7 @@
       <c r="X347" s="3"/>
       <c r="Y347" s="3"/>
     </row>
-    <row r="348" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -12619,7 +12613,7 @@
       <c r="X348" s="3"/>
       <c r="Y348" s="3"/>
     </row>
-    <row r="349" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -12646,7 +12640,7 @@
       <c r="X349" s="3"/>
       <c r="Y349" s="3"/>
     </row>
-    <row r="350" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -12673,7 +12667,7 @@
       <c r="X350" s="3"/>
       <c r="Y350" s="3"/>
     </row>
-    <row r="351" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -12700,7 +12694,7 @@
       <c r="X351" s="3"/>
       <c r="Y351" s="3"/>
     </row>
-    <row r="352" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -12727,7 +12721,7 @@
       <c r="X352" s="3"/>
       <c r="Y352" s="3"/>
     </row>
-    <row r="353" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -12754,7 +12748,7 @@
       <c r="X353" s="3"/>
       <c r="Y353" s="3"/>
     </row>
-    <row r="354" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -12781,7 +12775,7 @@
       <c r="X354" s="3"/>
       <c r="Y354" s="3"/>
     </row>
-    <row r="355" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -12808,7 +12802,7 @@
       <c r="X355" s="3"/>
       <c r="Y355" s="3"/>
     </row>
-    <row r="356" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -12835,7 +12829,7 @@
       <c r="X356" s="3"/>
       <c r="Y356" s="3"/>
     </row>
-    <row r="357" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -12862,7 +12856,7 @@
       <c r="X357" s="3"/>
       <c r="Y357" s="3"/>
     </row>
-    <row r="358" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -12889,7 +12883,7 @@
       <c r="X358" s="3"/>
       <c r="Y358" s="3"/>
     </row>
-    <row r="359" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -12916,7 +12910,7 @@
       <c r="X359" s="3"/>
       <c r="Y359" s="3"/>
     </row>
-    <row r="360" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -12943,7 +12937,7 @@
       <c r="X360" s="3"/>
       <c r="Y360" s="3"/>
     </row>
-    <row r="361" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -12970,7 +12964,7 @@
       <c r="X361" s="3"/>
       <c r="Y361" s="3"/>
     </row>
-    <row r="362" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -12997,7 +12991,7 @@
       <c r="X362" s="3"/>
       <c r="Y362" s="3"/>
     </row>
-    <row r="363" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -13024,7 +13018,7 @@
       <c r="X363" s="3"/>
       <c r="Y363" s="3"/>
     </row>
-    <row r="364" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -13051,7 +13045,7 @@
       <c r="X364" s="3"/>
       <c r="Y364" s="3"/>
     </row>
-    <row r="365" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -13078,7 +13072,7 @@
       <c r="X365" s="3"/>
       <c r="Y365" s="3"/>
     </row>
-    <row r="366" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -13105,7 +13099,7 @@
       <c r="X366" s="3"/>
       <c r="Y366" s="3"/>
     </row>
-    <row r="367" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -13132,7 +13126,7 @@
       <c r="X367" s="3"/>
       <c r="Y367" s="3"/>
     </row>
-    <row r="368" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -13159,7 +13153,7 @@
       <c r="X368" s="3"/>
       <c r="Y368" s="3"/>
     </row>
-    <row r="369" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -13186,7 +13180,7 @@
       <c r="X369" s="3"/>
       <c r="Y369" s="3"/>
     </row>
-    <row r="370" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -13213,7 +13207,7 @@
       <c r="X370" s="3"/>
       <c r="Y370" s="3"/>
     </row>
-    <row r="371" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -13240,7 +13234,7 @@
       <c r="X371" s="3"/>
       <c r="Y371" s="3"/>
     </row>
-    <row r="372" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -13267,7 +13261,7 @@
       <c r="X372" s="3"/>
       <c r="Y372" s="3"/>
     </row>
-    <row r="373" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -13294,7 +13288,7 @@
       <c r="X373" s="3"/>
       <c r="Y373" s="3"/>
     </row>
-    <row r="374" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -13321,7 +13315,7 @@
       <c r="X374" s="3"/>
       <c r="Y374" s="3"/>
     </row>
-    <row r="375" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -13348,7 +13342,7 @@
       <c r="X375" s="3"/>
       <c r="Y375" s="3"/>
     </row>
-    <row r="376" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -13375,7 +13369,7 @@
       <c r="X376" s="3"/>
       <c r="Y376" s="3"/>
     </row>
-    <row r="377" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -13402,7 +13396,7 @@
       <c r="X377" s="3"/>
       <c r="Y377" s="3"/>
     </row>
-    <row r="378" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -13429,7 +13423,7 @@
       <c r="X378" s="3"/>
       <c r="Y378" s="3"/>
     </row>
-    <row r="379" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -13456,7 +13450,7 @@
       <c r="X379" s="3"/>
       <c r="Y379" s="3"/>
     </row>
-    <row r="380" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -13483,7 +13477,7 @@
       <c r="X380" s="3"/>
       <c r="Y380" s="3"/>
     </row>
-    <row r="381" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -13510,7 +13504,7 @@
       <c r="X381" s="3"/>
       <c r="Y381" s="3"/>
     </row>
-    <row r="382" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -13537,7 +13531,7 @@
       <c r="X382" s="3"/>
       <c r="Y382" s="3"/>
     </row>
-    <row r="383" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -13564,7 +13558,7 @@
       <c r="X383" s="3"/>
       <c r="Y383" s="3"/>
     </row>
-    <row r="384" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -13591,7 +13585,7 @@
       <c r="X384" s="3"/>
       <c r="Y384" s="3"/>
     </row>
-    <row r="385" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -13618,7 +13612,7 @@
       <c r="X385" s="3"/>
       <c r="Y385" s="3"/>
     </row>
-    <row r="386" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -13645,7 +13639,7 @@
       <c r="X386" s="3"/>
       <c r="Y386" s="3"/>
     </row>
-    <row r="387" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -13672,7 +13666,7 @@
       <c r="X387" s="3"/>
       <c r="Y387" s="3"/>
     </row>
-    <row r="388" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -13699,7 +13693,7 @@
       <c r="X388" s="3"/>
       <c r="Y388" s="3"/>
     </row>
-    <row r="389" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -13726,7 +13720,7 @@
       <c r="X389" s="3"/>
       <c r="Y389" s="3"/>
     </row>
-    <row r="390" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -13753,7 +13747,7 @@
       <c r="X390" s="3"/>
       <c r="Y390" s="3"/>
     </row>
-    <row r="391" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -13780,7 +13774,7 @@
       <c r="X391" s="3"/>
       <c r="Y391" s="3"/>
     </row>
-    <row r="392" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -13807,7 +13801,7 @@
       <c r="X392" s="3"/>
       <c r="Y392" s="3"/>
     </row>
-    <row r="393" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -13834,7 +13828,7 @@
       <c r="X393" s="3"/>
       <c r="Y393" s="3"/>
     </row>
-    <row r="394" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -13861,7 +13855,7 @@
       <c r="X394" s="3"/>
       <c r="Y394" s="3"/>
     </row>
-    <row r="395" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -13888,7 +13882,7 @@
       <c r="X395" s="3"/>
       <c r="Y395" s="3"/>
     </row>
-    <row r="396" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -13915,7 +13909,7 @@
       <c r="X396" s="3"/>
       <c r="Y396" s="3"/>
     </row>
-    <row r="397" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -13942,7 +13936,7 @@
       <c r="X397" s="3"/>
       <c r="Y397" s="3"/>
     </row>
-    <row r="398" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -13969,7 +13963,7 @@
       <c r="X398" s="3"/>
       <c r="Y398" s="3"/>
     </row>
-    <row r="399" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -13996,7 +13990,7 @@
       <c r="X399" s="3"/>
       <c r="Y399" s="3"/>
     </row>
-    <row r="400" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -14023,7 +14017,7 @@
       <c r="X400" s="3"/>
       <c r="Y400" s="3"/>
     </row>
-    <row r="401" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -14050,7 +14044,7 @@
       <c r="X401" s="3"/>
       <c r="Y401" s="3"/>
     </row>
-    <row r="402" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -14077,7 +14071,7 @@
       <c r="X402" s="3"/>
       <c r="Y402" s="3"/>
     </row>
-    <row r="403" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -14104,7 +14098,7 @@
       <c r="X403" s="3"/>
       <c r="Y403" s="3"/>
     </row>
-    <row r="404" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -14131,7 +14125,7 @@
       <c r="X404" s="3"/>
       <c r="Y404" s="3"/>
     </row>
-    <row r="405" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -14158,7 +14152,7 @@
       <c r="X405" s="3"/>
       <c r="Y405" s="3"/>
     </row>
-    <row r="406" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -14185,7 +14179,7 @@
       <c r="X406" s="3"/>
       <c r="Y406" s="3"/>
     </row>
-    <row r="407" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -14212,7 +14206,7 @@
       <c r="X407" s="3"/>
       <c r="Y407" s="3"/>
     </row>
-    <row r="408" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -14239,7 +14233,7 @@
       <c r="X408" s="3"/>
       <c r="Y408" s="3"/>
     </row>
-    <row r="409" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -14266,7 +14260,7 @@
       <c r="X409" s="3"/>
       <c r="Y409" s="3"/>
     </row>
-    <row r="410" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -14293,7 +14287,7 @@
       <c r="X410" s="3"/>
       <c r="Y410" s="3"/>
     </row>
-    <row r="411" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -14320,7 +14314,7 @@
       <c r="X411" s="3"/>
       <c r="Y411" s="3"/>
     </row>
-    <row r="412" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -14347,7 +14341,7 @@
       <c r="X412" s="3"/>
       <c r="Y412" s="3"/>
     </row>
-    <row r="413" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -14374,7 +14368,7 @@
       <c r="X413" s="3"/>
       <c r="Y413" s="3"/>
     </row>
-    <row r="414" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -14401,7 +14395,7 @@
       <c r="X414" s="3"/>
       <c r="Y414" s="3"/>
     </row>
-    <row r="415" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -14428,7 +14422,7 @@
       <c r="X415" s="3"/>
       <c r="Y415" s="3"/>
     </row>
-    <row r="416" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -14455,7 +14449,7 @@
       <c r="X416" s="3"/>
       <c r="Y416" s="3"/>
     </row>
-    <row r="417" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -14482,7 +14476,7 @@
       <c r="X417" s="3"/>
       <c r="Y417" s="3"/>
     </row>
-    <row r="418" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -14509,7 +14503,7 @@
       <c r="X418" s="3"/>
       <c r="Y418" s="3"/>
     </row>
-    <row r="419" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -14536,7 +14530,7 @@
       <c r="X419" s="3"/>
       <c r="Y419" s="3"/>
     </row>
-    <row r="420" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -14563,7 +14557,7 @@
       <c r="X420" s="3"/>
       <c r="Y420" s="3"/>
     </row>
-    <row r="421" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -14590,7 +14584,7 @@
       <c r="X421" s="3"/>
       <c r="Y421" s="3"/>
     </row>
-    <row r="422" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -14617,7 +14611,7 @@
       <c r="X422" s="3"/>
       <c r="Y422" s="3"/>
     </row>
-    <row r="423" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -14644,7 +14638,7 @@
       <c r="X423" s="3"/>
       <c r="Y423" s="3"/>
     </row>
-    <row r="424" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -14671,7 +14665,7 @@
       <c r="X424" s="3"/>
       <c r="Y424" s="3"/>
     </row>
-    <row r="425" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -14698,7 +14692,7 @@
       <c r="X425" s="3"/>
       <c r="Y425" s="3"/>
     </row>
-    <row r="426" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -14725,7 +14719,7 @@
       <c r="X426" s="3"/>
       <c r="Y426" s="3"/>
     </row>
-    <row r="427" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -14752,7 +14746,7 @@
       <c r="X427" s="3"/>
       <c r="Y427" s="3"/>
     </row>
-    <row r="428" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -14779,7 +14773,7 @@
       <c r="X428" s="3"/>
       <c r="Y428" s="3"/>
     </row>
-    <row r="429" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -14806,7 +14800,7 @@
       <c r="X429" s="3"/>
       <c r="Y429" s="3"/>
     </row>
-    <row r="430" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -14833,7 +14827,7 @@
       <c r="X430" s="3"/>
       <c r="Y430" s="3"/>
     </row>
-    <row r="431" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -14860,7 +14854,7 @@
       <c r="X431" s="3"/>
       <c r="Y431" s="3"/>
     </row>
-    <row r="432" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -14887,7 +14881,7 @@
       <c r="X432" s="3"/>
       <c r="Y432" s="3"/>
     </row>
-    <row r="433" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -14914,7 +14908,7 @@
       <c r="X433" s="3"/>
       <c r="Y433" s="3"/>
     </row>
-    <row r="434" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -14941,7 +14935,7 @@
       <c r="X434" s="3"/>
       <c r="Y434" s="3"/>
     </row>
-    <row r="435" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -14968,7 +14962,7 @@
       <c r="X435" s="3"/>
       <c r="Y435" s="3"/>
     </row>
-    <row r="436" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -14995,7 +14989,7 @@
       <c r="X436" s="3"/>
       <c r="Y436" s="3"/>
     </row>
-    <row r="437" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -15022,7 +15016,7 @@
       <c r="X437" s="3"/>
       <c r="Y437" s="3"/>
     </row>
-    <row r="438" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -15049,7 +15043,7 @@
       <c r="X438" s="3"/>
       <c r="Y438" s="3"/>
     </row>
-    <row r="439" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -15076,7 +15070,7 @@
       <c r="X439" s="3"/>
       <c r="Y439" s="3"/>
     </row>
-    <row r="440" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -15103,7 +15097,7 @@
       <c r="X440" s="3"/>
       <c r="Y440" s="3"/>
     </row>
-    <row r="441" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -15130,7 +15124,7 @@
       <c r="X441" s="3"/>
       <c r="Y441" s="3"/>
     </row>
-    <row r="442" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -15157,7 +15151,7 @@
       <c r="X442" s="3"/>
       <c r="Y442" s="3"/>
     </row>
-    <row r="443" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -15184,7 +15178,7 @@
       <c r="X443" s="3"/>
       <c r="Y443" s="3"/>
     </row>
-    <row r="444" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -15211,7 +15205,7 @@
       <c r="X444" s="3"/>
       <c r="Y444" s="3"/>
     </row>
-    <row r="445" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -15238,7 +15232,7 @@
       <c r="X445" s="3"/>
       <c r="Y445" s="3"/>
     </row>
-    <row r="446" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -15265,7 +15259,7 @@
       <c r="X446" s="3"/>
       <c r="Y446" s="3"/>
     </row>
-    <row r="447" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -15292,7 +15286,7 @@
       <c r="X447" s="3"/>
       <c r="Y447" s="3"/>
     </row>
-    <row r="448" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -15319,7 +15313,7 @@
       <c r="X448" s="3"/>
       <c r="Y448" s="3"/>
     </row>
-    <row r="449" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -15346,7 +15340,7 @@
       <c r="X449" s="3"/>
       <c r="Y449" s="3"/>
     </row>
-    <row r="450" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -15373,7 +15367,7 @@
       <c r="X450" s="3"/>
       <c r="Y450" s="3"/>
     </row>
-    <row r="451" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -15400,7 +15394,7 @@
       <c r="X451" s="3"/>
       <c r="Y451" s="3"/>
     </row>
-    <row r="452" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -15427,7 +15421,7 @@
       <c r="X452" s="3"/>
       <c r="Y452" s="3"/>
     </row>
-    <row r="453" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -15454,7 +15448,7 @@
       <c r="X453" s="3"/>
       <c r="Y453" s="3"/>
     </row>
-    <row r="454" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -15481,7 +15475,7 @@
       <c r="X454" s="3"/>
       <c r="Y454" s="3"/>
     </row>
-    <row r="455" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -15508,7 +15502,7 @@
       <c r="X455" s="3"/>
       <c r="Y455" s="3"/>
     </row>
-    <row r="456" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -15535,7 +15529,7 @@
       <c r="X456" s="3"/>
       <c r="Y456" s="3"/>
     </row>
-    <row r="457" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -15562,7 +15556,7 @@
       <c r="X457" s="3"/>
       <c r="Y457" s="3"/>
     </row>
-    <row r="458" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -15589,7 +15583,7 @@
       <c r="X458" s="3"/>
       <c r="Y458" s="3"/>
     </row>
-    <row r="459" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -15616,7 +15610,7 @@
       <c r="X459" s="3"/>
       <c r="Y459" s="3"/>
     </row>
-    <row r="460" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -15643,7 +15637,7 @@
       <c r="X460" s="3"/>
       <c r="Y460" s="3"/>
     </row>
-    <row r="461" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -15670,7 +15664,7 @@
       <c r="X461" s="3"/>
       <c r="Y461" s="3"/>
     </row>
-    <row r="462" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -15697,7 +15691,7 @@
       <c r="X462" s="3"/>
       <c r="Y462" s="3"/>
     </row>
-    <row r="463" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -15724,7 +15718,7 @@
       <c r="X463" s="3"/>
       <c r="Y463" s="3"/>
     </row>
-    <row r="464" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -15751,7 +15745,7 @@
       <c r="X464" s="3"/>
       <c r="Y464" s="3"/>
     </row>
-    <row r="465" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -15778,7 +15772,7 @@
       <c r="X465" s="3"/>
       <c r="Y465" s="3"/>
     </row>
-    <row r="466" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -15805,7 +15799,7 @@
       <c r="X466" s="3"/>
       <c r="Y466" s="3"/>
     </row>
-    <row r="467" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -15832,7 +15826,7 @@
       <c r="X467" s="3"/>
       <c r="Y467" s="3"/>
     </row>
-    <row r="468" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -15859,7 +15853,7 @@
       <c r="X468" s="3"/>
       <c r="Y468" s="3"/>
     </row>
-    <row r="469" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -15886,7 +15880,7 @@
       <c r="X469" s="3"/>
       <c r="Y469" s="3"/>
     </row>
-    <row r="470" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -15913,7 +15907,7 @@
       <c r="X470" s="3"/>
       <c r="Y470" s="3"/>
     </row>
-    <row r="471" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -15940,7 +15934,7 @@
       <c r="X471" s="3"/>
       <c r="Y471" s="3"/>
     </row>
-    <row r="472" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -15967,7 +15961,7 @@
       <c r="X472" s="3"/>
       <c r="Y472" s="3"/>
     </row>
-    <row r="473" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -15994,7 +15988,7 @@
       <c r="X473" s="3"/>
       <c r="Y473" s="3"/>
     </row>
-    <row r="474" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -16021,7 +16015,7 @@
       <c r="X474" s="3"/>
       <c r="Y474" s="3"/>
     </row>
-    <row r="475" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -16048,7 +16042,7 @@
       <c r="X475" s="3"/>
       <c r="Y475" s="3"/>
     </row>
-    <row r="476" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -16075,7 +16069,7 @@
       <c r="X476" s="3"/>
       <c r="Y476" s="3"/>
     </row>
-    <row r="477" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -16102,7 +16096,7 @@
       <c r="X477" s="3"/>
       <c r="Y477" s="3"/>
     </row>
-    <row r="478" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -16129,7 +16123,7 @@
       <c r="X478" s="3"/>
       <c r="Y478" s="3"/>
     </row>
-    <row r="479" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -16156,7 +16150,7 @@
       <c r="X479" s="3"/>
       <c r="Y479" s="3"/>
     </row>
-    <row r="480" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -16183,7 +16177,7 @@
       <c r="X480" s="3"/>
       <c r="Y480" s="3"/>
     </row>
-    <row r="481" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -16210,7 +16204,7 @@
       <c r="X481" s="3"/>
       <c r="Y481" s="3"/>
     </row>
-    <row r="482" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -16237,7 +16231,7 @@
       <c r="X482" s="3"/>
       <c r="Y482" s="3"/>
     </row>
-    <row r="483" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -16264,7 +16258,7 @@
       <c r="X483" s="3"/>
       <c r="Y483" s="3"/>
     </row>
-    <row r="484" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -16291,7 +16285,7 @@
       <c r="X484" s="3"/>
       <c r="Y484" s="3"/>
     </row>
-    <row r="485" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -16318,7 +16312,7 @@
       <c r="X485" s="3"/>
       <c r="Y485" s="3"/>
     </row>
-    <row r="486" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -16345,7 +16339,7 @@
       <c r="X486" s="3"/>
       <c r="Y486" s="3"/>
     </row>
-    <row r="487" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -16372,7 +16366,7 @@
       <c r="X487" s="3"/>
       <c r="Y487" s="3"/>
     </row>
-    <row r="488" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -16399,7 +16393,7 @@
       <c r="X488" s="3"/>
       <c r="Y488" s="3"/>
     </row>
-    <row r="489" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -16426,7 +16420,7 @@
       <c r="X489" s="3"/>
       <c r="Y489" s="3"/>
     </row>
-    <row r="490" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -16453,7 +16447,7 @@
       <c r="X490" s="3"/>
       <c r="Y490" s="3"/>
     </row>
-    <row r="491" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -16480,7 +16474,7 @@
       <c r="X491" s="3"/>
       <c r="Y491" s="3"/>
     </row>
-    <row r="492" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -16507,7 +16501,7 @@
       <c r="X492" s="3"/>
       <c r="Y492" s="3"/>
     </row>
-    <row r="493" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -16534,7 +16528,7 @@
       <c r="X493" s="3"/>
       <c r="Y493" s="3"/>
     </row>
-    <row r="494" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -16561,7 +16555,7 @@
       <c r="X494" s="3"/>
       <c r="Y494" s="3"/>
     </row>
-    <row r="495" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -16588,7 +16582,7 @@
       <c r="X495" s="3"/>
       <c r="Y495" s="3"/>
     </row>
-    <row r="496" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -16615,7 +16609,7 @@
       <c r="X496" s="3"/>
       <c r="Y496" s="3"/>
     </row>
-    <row r="497" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -16642,7 +16636,7 @@
       <c r="X497" s="3"/>
       <c r="Y497" s="3"/>
     </row>
-    <row r="498" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -16669,7 +16663,7 @@
       <c r="X498" s="3"/>
       <c r="Y498" s="3"/>
     </row>
-    <row r="499" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -16696,7 +16690,7 @@
       <c r="X499" s="3"/>
       <c r="Y499" s="3"/>
     </row>
-    <row r="500" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -16723,7 +16717,7 @@
       <c r="X500" s="3"/>
       <c r="Y500" s="3"/>
     </row>
-    <row r="501" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -16750,7 +16744,7 @@
       <c r="X501" s="3"/>
       <c r="Y501" s="3"/>
     </row>
-    <row r="502" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -16777,7 +16771,7 @@
       <c r="X502" s="3"/>
       <c r="Y502" s="3"/>
     </row>
-    <row r="503" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -16804,7 +16798,7 @@
       <c r="X503" s="3"/>
       <c r="Y503" s="3"/>
     </row>
-    <row r="504" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -16831,7 +16825,7 @@
       <c r="X504" s="3"/>
       <c r="Y504" s="3"/>
     </row>
-    <row r="505" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -16858,7 +16852,7 @@
       <c r="X505" s="3"/>
       <c r="Y505" s="3"/>
     </row>
-    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -16885,7 +16879,7 @@
       <c r="X506" s="3"/>
       <c r="Y506" s="3"/>
     </row>
-    <row r="507" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -16912,7 +16906,7 @@
       <c r="X507" s="3"/>
       <c r="Y507" s="3"/>
     </row>
-    <row r="508" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -16939,7 +16933,7 @@
       <c r="X508" s="3"/>
       <c r="Y508" s="3"/>
     </row>
-    <row r="509" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -16966,7 +16960,7 @@
       <c r="X509" s="3"/>
       <c r="Y509" s="3"/>
     </row>
-    <row r="510" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -16993,7 +16987,7 @@
       <c r="X510" s="3"/>
       <c r="Y510" s="3"/>
     </row>
-    <row r="511" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -17020,7 +17014,7 @@
       <c r="X511" s="3"/>
       <c r="Y511" s="3"/>
     </row>
-    <row r="512" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -17047,7 +17041,7 @@
       <c r="X512" s="3"/>
       <c r="Y512" s="3"/>
     </row>
-    <row r="513" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -17074,7 +17068,7 @@
       <c r="X513" s="3"/>
       <c r="Y513" s="3"/>
     </row>
-    <row r="514" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -17101,7 +17095,7 @@
       <c r="X514" s="3"/>
       <c r="Y514" s="3"/>
     </row>
-    <row r="515" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -17128,7 +17122,7 @@
       <c r="X515" s="3"/>
       <c r="Y515" s="3"/>
     </row>
-    <row r="516" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -17155,7 +17149,7 @@
       <c r="X516" s="3"/>
       <c r="Y516" s="3"/>
     </row>
-    <row r="517" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -17182,7 +17176,7 @@
       <c r="X517" s="3"/>
       <c r="Y517" s="3"/>
     </row>
-    <row r="518" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -17209,7 +17203,7 @@
       <c r="X518" s="3"/>
       <c r="Y518" s="3"/>
     </row>
-    <row r="519" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -17236,7 +17230,7 @@
       <c r="X519" s="3"/>
       <c r="Y519" s="3"/>
     </row>
-    <row r="520" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -17263,7 +17257,7 @@
       <c r="X520" s="3"/>
       <c r="Y520" s="3"/>
     </row>
-    <row r="521" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -17290,7 +17284,7 @@
       <c r="X521" s="3"/>
       <c r="Y521" s="3"/>
     </row>
-    <row r="522" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -17317,7 +17311,7 @@
       <c r="X522" s="3"/>
       <c r="Y522" s="3"/>
     </row>
-    <row r="523" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -17344,7 +17338,7 @@
       <c r="X523" s="3"/>
       <c r="Y523" s="3"/>
     </row>
-    <row r="524" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -17371,7 +17365,7 @@
       <c r="X524" s="3"/>
       <c r="Y524" s="3"/>
     </row>
-    <row r="525" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -17398,7 +17392,7 @@
       <c r="X525" s="3"/>
       <c r="Y525" s="3"/>
     </row>
-    <row r="526" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -17425,7 +17419,7 @@
       <c r="X526" s="3"/>
       <c r="Y526" s="3"/>
     </row>
-    <row r="527" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -17452,7 +17446,7 @@
       <c r="X527" s="3"/>
       <c r="Y527" s="3"/>
     </row>
-    <row r="528" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -17479,7 +17473,7 @@
       <c r="X528" s="3"/>
       <c r="Y528" s="3"/>
     </row>
-    <row r="529" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -17506,7 +17500,7 @@
       <c r="X529" s="3"/>
       <c r="Y529" s="3"/>
     </row>
-    <row r="530" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -17533,7 +17527,7 @@
       <c r="X530" s="3"/>
       <c r="Y530" s="3"/>
     </row>
-    <row r="531" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -17560,7 +17554,7 @@
       <c r="X531" s="3"/>
       <c r="Y531" s="3"/>
     </row>
-    <row r="532" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -17587,7 +17581,7 @@
       <c r="X532" s="3"/>
       <c r="Y532" s="3"/>
     </row>
-    <row r="533" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -17614,7 +17608,7 @@
       <c r="X533" s="3"/>
       <c r="Y533" s="3"/>
     </row>
-    <row r="534" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -17641,7 +17635,7 @@
       <c r="X534" s="3"/>
       <c r="Y534" s="3"/>
     </row>
-    <row r="535" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -17668,7 +17662,7 @@
       <c r="X535" s="3"/>
       <c r="Y535" s="3"/>
     </row>
-    <row r="536" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -17695,7 +17689,7 @@
       <c r="X536" s="3"/>
       <c r="Y536" s="3"/>
     </row>
-    <row r="537" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -17722,7 +17716,7 @@
       <c r="X537" s="3"/>
       <c r="Y537" s="3"/>
     </row>
-    <row r="538" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -17749,7 +17743,7 @@
       <c r="X538" s="3"/>
       <c r="Y538" s="3"/>
     </row>
-    <row r="539" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -17776,7 +17770,7 @@
       <c r="X539" s="3"/>
       <c r="Y539" s="3"/>
     </row>
-    <row r="540" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -17803,7 +17797,7 @@
       <c r="X540" s="3"/>
       <c r="Y540" s="3"/>
     </row>
-    <row r="541" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -17830,7 +17824,7 @@
       <c r="X541" s="3"/>
       <c r="Y541" s="3"/>
     </row>
-    <row r="542" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -17857,7 +17851,7 @@
       <c r="X542" s="3"/>
       <c r="Y542" s="3"/>
     </row>
-    <row r="543" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -17884,7 +17878,7 @@
       <c r="X543" s="3"/>
       <c r="Y543" s="3"/>
     </row>
-    <row r="544" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -17911,7 +17905,7 @@
       <c r="X544" s="3"/>
       <c r="Y544" s="3"/>
     </row>
-    <row r="545" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -17938,7 +17932,7 @@
       <c r="X545" s="3"/>
       <c r="Y545" s="3"/>
     </row>
-    <row r="546" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -17965,7 +17959,7 @@
       <c r="X546" s="3"/>
       <c r="Y546" s="3"/>
     </row>
-    <row r="547" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -17992,7 +17986,7 @@
       <c r="X547" s="3"/>
       <c r="Y547" s="3"/>
     </row>
-    <row r="548" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -18019,7 +18013,7 @@
       <c r="X548" s="3"/>
       <c r="Y548" s="3"/>
     </row>
-    <row r="549" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -18046,7 +18040,7 @@
       <c r="X549" s="3"/>
       <c r="Y549" s="3"/>
     </row>
-    <row r="550" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -18073,7 +18067,7 @@
       <c r="X550" s="3"/>
       <c r="Y550" s="3"/>
     </row>
-    <row r="551" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -18100,7 +18094,7 @@
       <c r="X551" s="3"/>
       <c r="Y551" s="3"/>
     </row>
-    <row r="552" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -18127,7 +18121,7 @@
       <c r="X552" s="3"/>
       <c r="Y552" s="3"/>
     </row>
-    <row r="553" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -18154,7 +18148,7 @@
       <c r="X553" s="3"/>
       <c r="Y553" s="3"/>
     </row>
-    <row r="554" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -18181,7 +18175,7 @@
       <c r="X554" s="3"/>
       <c r="Y554" s="3"/>
     </row>
-    <row r="555" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -18208,7 +18202,7 @@
       <c r="X555" s="3"/>
       <c r="Y555" s="3"/>
     </row>
-    <row r="556" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -18235,7 +18229,7 @@
       <c r="X556" s="3"/>
       <c r="Y556" s="3"/>
     </row>
-    <row r="557" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -18262,7 +18256,7 @@
       <c r="X557" s="3"/>
       <c r="Y557" s="3"/>
     </row>
-    <row r="558" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -18289,7 +18283,7 @@
       <c r="X558" s="3"/>
       <c r="Y558" s="3"/>
     </row>
-    <row r="559" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -18316,7 +18310,7 @@
       <c r="X559" s="3"/>
       <c r="Y559" s="3"/>
     </row>
-    <row r="560" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -18343,7 +18337,7 @@
       <c r="X560" s="3"/>
       <c r="Y560" s="3"/>
     </row>
-    <row r="561" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -18370,7 +18364,7 @@
       <c r="X561" s="3"/>
       <c r="Y561" s="3"/>
     </row>
-    <row r="562" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -18397,7 +18391,7 @@
       <c r="X562" s="3"/>
       <c r="Y562" s="3"/>
     </row>
-    <row r="563" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -18424,7 +18418,7 @@
       <c r="X563" s="3"/>
       <c r="Y563" s="3"/>
     </row>
-    <row r="564" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -18451,7 +18445,7 @@
       <c r="X564" s="3"/>
       <c r="Y564" s="3"/>
     </row>
-    <row r="565" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -18478,7 +18472,7 @@
       <c r="X565" s="3"/>
       <c r="Y565" s="3"/>
     </row>
-    <row r="566" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -18505,7 +18499,7 @@
       <c r="X566" s="3"/>
       <c r="Y566" s="3"/>
     </row>
-    <row r="567" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -18532,7 +18526,7 @@
       <c r="X567" s="3"/>
       <c r="Y567" s="3"/>
     </row>
-    <row r="568" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -18559,7 +18553,7 @@
       <c r="X568" s="3"/>
       <c r="Y568" s="3"/>
     </row>
-    <row r="569" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -18586,7 +18580,7 @@
       <c r="X569" s="3"/>
       <c r="Y569" s="3"/>
     </row>
-    <row r="570" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -18613,7 +18607,7 @@
       <c r="X570" s="3"/>
       <c r="Y570" s="3"/>
     </row>
-    <row r="571" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -18640,7 +18634,7 @@
       <c r="X571" s="3"/>
       <c r="Y571" s="3"/>
     </row>
-    <row r="572" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -18667,7 +18661,7 @@
       <c r="X572" s="3"/>
       <c r="Y572" s="3"/>
     </row>
-    <row r="573" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -18694,7 +18688,7 @@
       <c r="X573" s="3"/>
       <c r="Y573" s="3"/>
     </row>
-    <row r="574" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -18721,7 +18715,7 @@
       <c r="X574" s="3"/>
       <c r="Y574" s="3"/>
     </row>
-    <row r="575" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -18748,7 +18742,7 @@
       <c r="X575" s="3"/>
       <c r="Y575" s="3"/>
     </row>
-    <row r="576" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -18775,7 +18769,7 @@
       <c r="X576" s="3"/>
       <c r="Y576" s="3"/>
     </row>
-    <row r="577" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -18802,7 +18796,7 @@
       <c r="X577" s="3"/>
       <c r="Y577" s="3"/>
     </row>
-    <row r="578" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -18829,7 +18823,7 @@
       <c r="X578" s="3"/>
       <c r="Y578" s="3"/>
     </row>
-    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -18856,7 +18850,7 @@
       <c r="X579" s="3"/>
       <c r="Y579" s="3"/>
     </row>
-    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -18883,7 +18877,7 @@
       <c r="X580" s="3"/>
       <c r="Y580" s="3"/>
     </row>
-    <row r="581" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -18910,7 +18904,7 @@
       <c r="X581" s="3"/>
       <c r="Y581" s="3"/>
     </row>
-    <row r="582" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -18937,7 +18931,7 @@
       <c r="X582" s="3"/>
       <c r="Y582" s="3"/>
     </row>
-    <row r="583" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -18964,7 +18958,7 @@
       <c r="X583" s="3"/>
       <c r="Y583" s="3"/>
     </row>
-    <row r="584" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -18991,7 +18985,7 @@
       <c r="X584" s="3"/>
       <c r="Y584" s="3"/>
     </row>
-    <row r="585" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -19018,7 +19012,7 @@
       <c r="X585" s="3"/>
       <c r="Y585" s="3"/>
     </row>
-    <row r="586" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -19045,7 +19039,7 @@
       <c r="X586" s="3"/>
       <c r="Y586" s="3"/>
     </row>
-    <row r="587" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -19072,7 +19066,7 @@
       <c r="X587" s="3"/>
       <c r="Y587" s="3"/>
     </row>
-    <row r="588" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -19099,7 +19093,7 @@
       <c r="X588" s="3"/>
       <c r="Y588" s="3"/>
     </row>
-    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -19126,7 +19120,7 @@
       <c r="X589" s="3"/>
       <c r="Y589" s="3"/>
     </row>
-    <row r="590" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -19153,7 +19147,7 @@
       <c r="X590" s="3"/>
       <c r="Y590" s="3"/>
     </row>
-    <row r="591" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -19180,7 +19174,7 @@
       <c r="X591" s="3"/>
       <c r="Y591" s="3"/>
     </row>
-    <row r="592" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -19207,7 +19201,7 @@
       <c r="X592" s="3"/>
       <c r="Y592" s="3"/>
     </row>
-    <row r="593" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -19234,7 +19228,7 @@
       <c r="X593" s="3"/>
       <c r="Y593" s="3"/>
     </row>
-    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -19261,7 +19255,7 @@
       <c r="X594" s="3"/>
       <c r="Y594" s="3"/>
     </row>
-    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -19288,7 +19282,7 @@
       <c r="X595" s="3"/>
       <c r="Y595" s="3"/>
     </row>
-    <row r="596" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -19315,7 +19309,7 @@
       <c r="X596" s="3"/>
       <c r="Y596" s="3"/>
     </row>
-    <row r="597" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -19342,7 +19336,7 @@
       <c r="X597" s="3"/>
       <c r="Y597" s="3"/>
     </row>
-    <row r="598" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -19369,7 +19363,7 @@
       <c r="X598" s="3"/>
       <c r="Y598" s="3"/>
     </row>
-    <row r="599" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -19396,7 +19390,7 @@
       <c r="X599" s="3"/>
       <c r="Y599" s="3"/>
     </row>
-    <row r="600" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -19423,7 +19417,7 @@
       <c r="X600" s="3"/>
       <c r="Y600" s="3"/>
     </row>
-    <row r="601" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -19450,7 +19444,7 @@
       <c r="X601" s="3"/>
       <c r="Y601" s="3"/>
     </row>
-    <row r="602" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -19477,7 +19471,7 @@
       <c r="X602" s="3"/>
       <c r="Y602" s="3"/>
     </row>
-    <row r="603" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -19504,7 +19498,7 @@
       <c r="X603" s="3"/>
       <c r="Y603" s="3"/>
     </row>
-    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -19531,7 +19525,7 @@
       <c r="X604" s="3"/>
       <c r="Y604" s="3"/>
     </row>
-    <row r="605" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -19558,7 +19552,7 @@
       <c r="X605" s="3"/>
       <c r="Y605" s="3"/>
     </row>
-    <row r="606" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -19585,7 +19579,7 @@
       <c r="X606" s="3"/>
       <c r="Y606" s="3"/>
     </row>
-    <row r="607" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -19612,7 +19606,7 @@
       <c r="X607" s="3"/>
       <c r="Y607" s="3"/>
     </row>
-    <row r="608" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -19639,7 +19633,7 @@
       <c r="X608" s="3"/>
       <c r="Y608" s="3"/>
     </row>
-    <row r="609" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -19666,7 +19660,7 @@
       <c r="X609" s="3"/>
       <c r="Y609" s="3"/>
     </row>
-    <row r="610" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -19693,7 +19687,7 @@
       <c r="X610" s="3"/>
       <c r="Y610" s="3"/>
     </row>
-    <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -19720,7 +19714,7 @@
       <c r="X611" s="3"/>
       <c r="Y611" s="3"/>
     </row>
-    <row r="612" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -19747,7 +19741,7 @@
       <c r="X612" s="3"/>
       <c r="Y612" s="3"/>
     </row>
-    <row r="613" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -19774,7 +19768,7 @@
       <c r="X613" s="3"/>
       <c r="Y613" s="3"/>
     </row>
-    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -19801,7 +19795,7 @@
       <c r="X614" s="3"/>
       <c r="Y614" s="3"/>
     </row>
-    <row r="615" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -19828,7 +19822,7 @@
       <c r="X615" s="3"/>
       <c r="Y615" s="3"/>
     </row>
-    <row r="616" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -19855,7 +19849,7 @@
       <c r="X616" s="3"/>
       <c r="Y616" s="3"/>
     </row>
-    <row r="617" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -19882,7 +19876,7 @@
       <c r="X617" s="3"/>
       <c r="Y617" s="3"/>
     </row>
-    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -19909,7 +19903,7 @@
       <c r="X618" s="3"/>
       <c r="Y618" s="3"/>
     </row>
-    <row r="619" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -19936,7 +19930,7 @@
       <c r="X619" s="3"/>
       <c r="Y619" s="3"/>
     </row>
-    <row r="620" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -19963,7 +19957,7 @@
       <c r="X620" s="3"/>
       <c r="Y620" s="3"/>
     </row>
-    <row r="621" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -19990,7 +19984,7 @@
       <c r="X621" s="3"/>
       <c r="Y621" s="3"/>
     </row>
-    <row r="622" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -20017,7 +20011,7 @@
       <c r="X622" s="3"/>
       <c r="Y622" s="3"/>
     </row>
-    <row r="623" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -20044,7 +20038,7 @@
       <c r="X623" s="3"/>
       <c r="Y623" s="3"/>
     </row>
-    <row r="624" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -20071,7 +20065,7 @@
       <c r="X624" s="3"/>
       <c r="Y624" s="3"/>
     </row>
-    <row r="625" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -20098,7 +20092,7 @@
       <c r="X625" s="3"/>
       <c r="Y625" s="3"/>
     </row>
-    <row r="626" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -20125,7 +20119,7 @@
       <c r="X626" s="3"/>
       <c r="Y626" s="3"/>
     </row>
-    <row r="627" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -20152,7 +20146,7 @@
       <c r="X627" s="3"/>
       <c r="Y627" s="3"/>
     </row>
-    <row r="628" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -20179,7 +20173,7 @@
       <c r="X628" s="3"/>
       <c r="Y628" s="3"/>
     </row>
-    <row r="629" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -20206,7 +20200,7 @@
       <c r="X629" s="3"/>
       <c r="Y629" s="3"/>
     </row>
-    <row r="630" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -20233,7 +20227,7 @@
       <c r="X630" s="3"/>
       <c r="Y630" s="3"/>
     </row>
-    <row r="631" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -20260,7 +20254,7 @@
       <c r="X631" s="3"/>
       <c r="Y631" s="3"/>
     </row>
-    <row r="632" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -20287,7 +20281,7 @@
       <c r="X632" s="3"/>
       <c r="Y632" s="3"/>
     </row>
-    <row r="633" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -20314,7 +20308,7 @@
       <c r="X633" s="3"/>
       <c r="Y633" s="3"/>
     </row>
-    <row r="634" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -20341,7 +20335,7 @@
       <c r="X634" s="3"/>
       <c r="Y634" s="3"/>
     </row>
-    <row r="635" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -20368,7 +20362,7 @@
       <c r="X635" s="3"/>
       <c r="Y635" s="3"/>
     </row>
-    <row r="636" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -20395,7 +20389,7 @@
       <c r="X636" s="3"/>
       <c r="Y636" s="3"/>
     </row>
-    <row r="637" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -20422,7 +20416,7 @@
       <c r="X637" s="3"/>
       <c r="Y637" s="3"/>
     </row>
-    <row r="638" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -20449,7 +20443,7 @@
       <c r="X638" s="3"/>
       <c r="Y638" s="3"/>
     </row>
-    <row r="639" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -20476,7 +20470,7 @@
       <c r="X639" s="3"/>
       <c r="Y639" s="3"/>
     </row>
-    <row r="640" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -20503,7 +20497,7 @@
       <c r="X640" s="3"/>
       <c r="Y640" s="3"/>
     </row>
-    <row r="641" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -20530,7 +20524,7 @@
       <c r="X641" s="3"/>
       <c r="Y641" s="3"/>
     </row>
-    <row r="642" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -20557,7 +20551,7 @@
       <c r="X642" s="3"/>
       <c r="Y642" s="3"/>
     </row>
-    <row r="643" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -20584,7 +20578,7 @@
       <c r="X643" s="3"/>
       <c r="Y643" s="3"/>
     </row>
-    <row r="644" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -20611,7 +20605,7 @@
       <c r="X644" s="3"/>
       <c r="Y644" s="3"/>
     </row>
-    <row r="645" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -20638,7 +20632,7 @@
       <c r="X645" s="3"/>
       <c r="Y645" s="3"/>
     </row>
-    <row r="646" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -20665,7 +20659,7 @@
       <c r="X646" s="3"/>
       <c r="Y646" s="3"/>
     </row>
-    <row r="647" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -20692,7 +20686,7 @@
       <c r="X647" s="3"/>
       <c r="Y647" s="3"/>
     </row>
-    <row r="648" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -20719,7 +20713,7 @@
       <c r="X648" s="3"/>
       <c r="Y648" s="3"/>
     </row>
-    <row r="649" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -20746,7 +20740,7 @@
       <c r="X649" s="3"/>
       <c r="Y649" s="3"/>
     </row>
-    <row r="650" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -20773,7 +20767,7 @@
       <c r="X650" s="3"/>
       <c r="Y650" s="3"/>
     </row>
-    <row r="651" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -20800,7 +20794,7 @@
       <c r="X651" s="3"/>
       <c r="Y651" s="3"/>
     </row>
-    <row r="652" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -20827,7 +20821,7 @@
       <c r="X652" s="3"/>
       <c r="Y652" s="3"/>
     </row>
-    <row r="653" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -20854,7 +20848,7 @@
       <c r="X653" s="3"/>
       <c r="Y653" s="3"/>
     </row>
-    <row r="654" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -20881,7 +20875,7 @@
       <c r="X654" s="3"/>
       <c r="Y654" s="3"/>
     </row>
-    <row r="655" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -20908,7 +20902,7 @@
       <c r="X655" s="3"/>
       <c r="Y655" s="3"/>
     </row>
-    <row r="656" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -20935,7 +20929,7 @@
       <c r="X656" s="3"/>
       <c r="Y656" s="3"/>
     </row>
-    <row r="657" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -20962,7 +20956,7 @@
       <c r="X657" s="3"/>
       <c r="Y657" s="3"/>
     </row>
-    <row r="658" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -20989,7 +20983,7 @@
       <c r="X658" s="3"/>
       <c r="Y658" s="3"/>
     </row>
-    <row r="659" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -21016,7 +21010,7 @@
       <c r="X659" s="3"/>
       <c r="Y659" s="3"/>
     </row>
-    <row r="660" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -21043,7 +21037,7 @@
       <c r="X660" s="3"/>
       <c r="Y660" s="3"/>
     </row>
-    <row r="661" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -21070,7 +21064,7 @@
       <c r="X661" s="3"/>
       <c r="Y661" s="3"/>
     </row>
-    <row r="662" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -21097,7 +21091,7 @@
       <c r="X662" s="3"/>
       <c r="Y662" s="3"/>
     </row>
-    <row r="663" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -21124,7 +21118,7 @@
       <c r="X663" s="3"/>
       <c r="Y663" s="3"/>
     </row>
-    <row r="664" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -21151,7 +21145,7 @@
       <c r="X664" s="3"/>
       <c r="Y664" s="3"/>
     </row>
-    <row r="665" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -21178,7 +21172,7 @@
       <c r="X665" s="3"/>
       <c r="Y665" s="3"/>
     </row>
-    <row r="666" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -21205,7 +21199,7 @@
       <c r="X666" s="3"/>
       <c r="Y666" s="3"/>
     </row>
-    <row r="667" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -21232,7 +21226,7 @@
       <c r="X667" s="3"/>
       <c r="Y667" s="3"/>
     </row>
-    <row r="668" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -21259,7 +21253,7 @@
       <c r="X668" s="3"/>
       <c r="Y668" s="3"/>
     </row>
-    <row r="669" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -21286,7 +21280,7 @@
       <c r="X669" s="3"/>
       <c r="Y669" s="3"/>
     </row>
-    <row r="670" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -21313,7 +21307,7 @@
       <c r="X670" s="3"/>
       <c r="Y670" s="3"/>
     </row>
-    <row r="671" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -21340,7 +21334,7 @@
       <c r="X671" s="3"/>
       <c r="Y671" s="3"/>
     </row>
-    <row r="672" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -21367,7 +21361,7 @@
       <c r="X672" s="3"/>
       <c r="Y672" s="3"/>
     </row>
-    <row r="673" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -21394,7 +21388,7 @@
       <c r="X673" s="3"/>
       <c r="Y673" s="3"/>
     </row>
-    <row r="674" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -21421,7 +21415,7 @@
       <c r="X674" s="3"/>
       <c r="Y674" s="3"/>
     </row>
-    <row r="675" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -21448,7 +21442,7 @@
       <c r="X675" s="3"/>
       <c r="Y675" s="3"/>
     </row>
-    <row r="676" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -21475,7 +21469,7 @@
       <c r="X676" s="3"/>
       <c r="Y676" s="3"/>
     </row>
-    <row r="677" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -21502,7 +21496,7 @@
       <c r="X677" s="3"/>
       <c r="Y677" s="3"/>
     </row>
-    <row r="678" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -21529,7 +21523,7 @@
       <c r="X678" s="3"/>
       <c r="Y678" s="3"/>
     </row>
-    <row r="679" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -21556,7 +21550,7 @@
       <c r="X679" s="3"/>
       <c r="Y679" s="3"/>
     </row>
-    <row r="680" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -21583,7 +21577,7 @@
       <c r="X680" s="3"/>
       <c r="Y680" s="3"/>
     </row>
-    <row r="681" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -21610,7 +21604,7 @@
       <c r="X681" s="3"/>
       <c r="Y681" s="3"/>
     </row>
-    <row r="682" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -21637,7 +21631,7 @@
       <c r="X682" s="3"/>
       <c r="Y682" s="3"/>
     </row>
-    <row r="683" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -21664,7 +21658,7 @@
       <c r="X683" s="3"/>
       <c r="Y683" s="3"/>
     </row>
-    <row r="684" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -21691,7 +21685,7 @@
       <c r="X684" s="3"/>
       <c r="Y684" s="3"/>
     </row>
-    <row r="685" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -21718,7 +21712,7 @@
       <c r="X685" s="3"/>
       <c r="Y685" s="3"/>
     </row>
-    <row r="686" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -21745,7 +21739,7 @@
       <c r="X686" s="3"/>
       <c r="Y686" s="3"/>
     </row>
-    <row r="687" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -21772,7 +21766,7 @@
       <c r="X687" s="3"/>
       <c r="Y687" s="3"/>
     </row>
-    <row r="688" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -21799,7 +21793,7 @@
       <c r="X688" s="3"/>
       <c r="Y688" s="3"/>
     </row>
-    <row r="689" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -21826,7 +21820,7 @@
       <c r="X689" s="3"/>
       <c r="Y689" s="3"/>
     </row>
-    <row r="690" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -21853,7 +21847,7 @@
       <c r="X690" s="3"/>
       <c r="Y690" s="3"/>
     </row>
-    <row r="691" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -21880,7 +21874,7 @@
       <c r="X691" s="3"/>
       <c r="Y691" s="3"/>
     </row>
-    <row r="692" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -21907,7 +21901,7 @@
       <c r="X692" s="3"/>
       <c r="Y692" s="3"/>
     </row>
-    <row r="693" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -21934,7 +21928,7 @@
       <c r="X693" s="3"/>
       <c r="Y693" s="3"/>
     </row>
-    <row r="694" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -21961,7 +21955,7 @@
       <c r="X694" s="3"/>
       <c r="Y694" s="3"/>
     </row>
-    <row r="695" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -21988,7 +21982,7 @@
       <c r="X695" s="3"/>
       <c r="Y695" s="3"/>
     </row>
-    <row r="696" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -22015,7 +22009,7 @@
       <c r="X696" s="3"/>
       <c r="Y696" s="3"/>
     </row>
-    <row r="697" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -22042,7 +22036,7 @@
       <c r="X697" s="3"/>
       <c r="Y697" s="3"/>
     </row>
-    <row r="698" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -22069,7 +22063,7 @@
       <c r="X698" s="3"/>
       <c r="Y698" s="3"/>
     </row>
-    <row r="699" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -22096,7 +22090,7 @@
       <c r="X699" s="3"/>
       <c r="Y699" s="3"/>
     </row>
-    <row r="700" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -22123,7 +22117,7 @@
       <c r="X700" s="3"/>
       <c r="Y700" s="3"/>
     </row>
-    <row r="701" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -22150,7 +22144,7 @@
       <c r="X701" s="3"/>
       <c r="Y701" s="3"/>
     </row>
-    <row r="702" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -22177,7 +22171,7 @@
       <c r="X702" s="3"/>
       <c r="Y702" s="3"/>
     </row>
-    <row r="703" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -22204,7 +22198,7 @@
       <c r="X703" s="3"/>
       <c r="Y703" s="3"/>
     </row>
-    <row r="704" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -22231,7 +22225,7 @@
       <c r="X704" s="3"/>
       <c r="Y704" s="3"/>
     </row>
-    <row r="705" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -22258,7 +22252,7 @@
       <c r="X705" s="3"/>
       <c r="Y705" s="3"/>
     </row>
-    <row r="706" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -22285,7 +22279,7 @@
       <c r="X706" s="3"/>
       <c r="Y706" s="3"/>
     </row>
-    <row r="707" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -22312,7 +22306,7 @@
       <c r="X707" s="3"/>
       <c r="Y707" s="3"/>
     </row>
-    <row r="708" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -22339,7 +22333,7 @@
       <c r="X708" s="3"/>
       <c r="Y708" s="3"/>
     </row>
-    <row r="709" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -22366,7 +22360,7 @@
       <c r="X709" s="3"/>
       <c r="Y709" s="3"/>
     </row>
-    <row r="710" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -22393,7 +22387,7 @@
       <c r="X710" s="3"/>
       <c r="Y710" s="3"/>
     </row>
-    <row r="711" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -22420,7 +22414,7 @@
       <c r="X711" s="3"/>
       <c r="Y711" s="3"/>
     </row>
-    <row r="712" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -22447,7 +22441,7 @@
       <c r="X712" s="3"/>
       <c r="Y712" s="3"/>
     </row>
-    <row r="713" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -22474,7 +22468,7 @@
       <c r="X713" s="3"/>
       <c r="Y713" s="3"/>
     </row>
-    <row r="714" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -22501,7 +22495,7 @@
       <c r="X714" s="3"/>
       <c r="Y714" s="3"/>
     </row>
-    <row r="715" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -22528,7 +22522,7 @@
       <c r="X715" s="3"/>
       <c r="Y715" s="3"/>
     </row>
-    <row r="716" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -22555,7 +22549,7 @@
       <c r="X716" s="3"/>
       <c r="Y716" s="3"/>
     </row>
-    <row r="717" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -22582,7 +22576,7 @@
       <c r="X717" s="3"/>
       <c r="Y717" s="3"/>
     </row>
-    <row r="718" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -22609,7 +22603,7 @@
       <c r="X718" s="3"/>
       <c r="Y718" s="3"/>
     </row>
-    <row r="719" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -22636,7 +22630,7 @@
       <c r="X719" s="3"/>
       <c r="Y719" s="3"/>
     </row>
-    <row r="720" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -22663,7 +22657,7 @@
       <c r="X720" s="3"/>
       <c r="Y720" s="3"/>
     </row>
-    <row r="721" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -22690,7 +22684,7 @@
       <c r="X721" s="3"/>
       <c r="Y721" s="3"/>
     </row>
-    <row r="722" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -22717,7 +22711,7 @@
       <c r="X722" s="3"/>
       <c r="Y722" s="3"/>
     </row>
-    <row r="723" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -22744,7 +22738,7 @@
       <c r="X723" s="3"/>
       <c r="Y723" s="3"/>
     </row>
-    <row r="724" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -22771,7 +22765,7 @@
       <c r="X724" s="3"/>
       <c r="Y724" s="3"/>
     </row>
-    <row r="725" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -22798,7 +22792,7 @@
       <c r="X725" s="3"/>
       <c r="Y725" s="3"/>
     </row>
-    <row r="726" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -22825,7 +22819,7 @@
       <c r="X726" s="3"/>
       <c r="Y726" s="3"/>
     </row>
-    <row r="727" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -22852,7 +22846,7 @@
       <c r="X727" s="3"/>
       <c r="Y727" s="3"/>
     </row>
-    <row r="728" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -22879,7 +22873,7 @@
       <c r="X728" s="3"/>
       <c r="Y728" s="3"/>
     </row>
-    <row r="729" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -22906,7 +22900,7 @@
       <c r="X729" s="3"/>
       <c r="Y729" s="3"/>
     </row>
-    <row r="730" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -22933,7 +22927,7 @@
       <c r="X730" s="3"/>
       <c r="Y730" s="3"/>
     </row>
-    <row r="731" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -22960,7 +22954,7 @@
       <c r="X731" s="3"/>
       <c r="Y731" s="3"/>
     </row>
-    <row r="732" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -22987,7 +22981,7 @@
       <c r="X732" s="3"/>
       <c r="Y732" s="3"/>
     </row>
-    <row r="733" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -23014,7 +23008,7 @@
       <c r="X733" s="3"/>
       <c r="Y733" s="3"/>
     </row>
-    <row r="734" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -23041,7 +23035,7 @@
       <c r="X734" s="3"/>
       <c r="Y734" s="3"/>
     </row>
-    <row r="735" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -23068,7 +23062,7 @@
       <c r="X735" s="3"/>
       <c r="Y735" s="3"/>
     </row>
-    <row r="736" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -23095,7 +23089,7 @@
       <c r="X736" s="3"/>
       <c r="Y736" s="3"/>
     </row>
-    <row r="737" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -23122,7 +23116,7 @@
       <c r="X737" s="3"/>
       <c r="Y737" s="3"/>
     </row>
-    <row r="738" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -23149,7 +23143,7 @@
       <c r="X738" s="3"/>
       <c r="Y738" s="3"/>
     </row>
-    <row r="739" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -23176,7 +23170,7 @@
       <c r="X739" s="3"/>
       <c r="Y739" s="3"/>
     </row>
-    <row r="740" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -23203,7 +23197,7 @@
       <c r="X740" s="3"/>
       <c r="Y740" s="3"/>
     </row>
-    <row r="741" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -23230,7 +23224,7 @@
       <c r="X741" s="3"/>
       <c r="Y741" s="3"/>
     </row>
-    <row r="742" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -23257,7 +23251,7 @@
       <c r="X742" s="3"/>
       <c r="Y742" s="3"/>
     </row>
-    <row r="743" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -23284,7 +23278,7 @@
       <c r="X743" s="3"/>
       <c r="Y743" s="3"/>
     </row>
-    <row r="744" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -23311,7 +23305,7 @@
       <c r="X744" s="3"/>
       <c r="Y744" s="3"/>
     </row>
-    <row r="745" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -23338,7 +23332,7 @@
       <c r="X745" s="3"/>
       <c r="Y745" s="3"/>
     </row>
-    <row r="746" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -23365,7 +23359,7 @@
       <c r="X746" s="3"/>
       <c r="Y746" s="3"/>
     </row>
-    <row r="747" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -23392,7 +23386,7 @@
       <c r="X747" s="3"/>
       <c r="Y747" s="3"/>
     </row>
-    <row r="748" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -23419,7 +23413,7 @@
       <c r="X748" s="3"/>
       <c r="Y748" s="3"/>
     </row>
-    <row r="749" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -23446,7 +23440,7 @@
       <c r="X749" s="3"/>
       <c r="Y749" s="3"/>
     </row>
-    <row r="750" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -23473,7 +23467,7 @@
       <c r="X750" s="3"/>
       <c r="Y750" s="3"/>
     </row>
-    <row r="751" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -23500,7 +23494,7 @@
       <c r="X751" s="3"/>
       <c r="Y751" s="3"/>
     </row>
-    <row r="752" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -23527,7 +23521,7 @@
       <c r="X752" s="3"/>
       <c r="Y752" s="3"/>
     </row>
-    <row r="753" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -23554,7 +23548,7 @@
       <c r="X753" s="3"/>
       <c r="Y753" s="3"/>
     </row>
-    <row r="754" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -23581,7 +23575,7 @@
       <c r="X754" s="3"/>
       <c r="Y754" s="3"/>
     </row>
-    <row r="755" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -23608,7 +23602,7 @@
       <c r="X755" s="3"/>
       <c r="Y755" s="3"/>
     </row>
-    <row r="756" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -23635,7 +23629,7 @@
       <c r="X756" s="3"/>
       <c r="Y756" s="3"/>
     </row>
-    <row r="757" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -23662,7 +23656,7 @@
       <c r="X757" s="3"/>
       <c r="Y757" s="3"/>
     </row>
-    <row r="758" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -23689,7 +23683,7 @@
       <c r="X758" s="3"/>
       <c r="Y758" s="3"/>
     </row>
-    <row r="759" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -23716,7 +23710,7 @@
       <c r="X759" s="3"/>
       <c r="Y759" s="3"/>
     </row>
-    <row r="760" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -23743,7 +23737,7 @@
       <c r="X760" s="3"/>
       <c r="Y760" s="3"/>
     </row>
-    <row r="761" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -23770,7 +23764,7 @@
       <c r="X761" s="3"/>
       <c r="Y761" s="3"/>
     </row>
-    <row r="762" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -23797,7 +23791,7 @@
       <c r="X762" s="3"/>
       <c r="Y762" s="3"/>
     </row>
-    <row r="763" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -23824,7 +23818,7 @@
       <c r="X763" s="3"/>
       <c r="Y763" s="3"/>
     </row>
-    <row r="764" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -23851,7 +23845,7 @@
       <c r="X764" s="3"/>
       <c r="Y764" s="3"/>
     </row>
-    <row r="765" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -23878,7 +23872,7 @@
       <c r="X765" s="3"/>
       <c r="Y765" s="3"/>
     </row>
-    <row r="766" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -23905,7 +23899,7 @@
       <c r="X766" s="3"/>
       <c r="Y766" s="3"/>
     </row>
-    <row r="767" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -23932,7 +23926,7 @@
       <c r="X767" s="3"/>
       <c r="Y767" s="3"/>
     </row>
-    <row r="768" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -23959,7 +23953,7 @@
       <c r="X768" s="3"/>
       <c r="Y768" s="3"/>
     </row>
-    <row r="769" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -23986,7 +23980,7 @@
       <c r="X769" s="3"/>
       <c r="Y769" s="3"/>
     </row>
-    <row r="770" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -24013,7 +24007,7 @@
       <c r="X770" s="3"/>
       <c r="Y770" s="3"/>
     </row>
-    <row r="771" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -24040,7 +24034,7 @@
       <c r="X771" s="3"/>
       <c r="Y771" s="3"/>
     </row>
-    <row r="772" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -24067,7 +24061,7 @@
       <c r="X772" s="3"/>
       <c r="Y772" s="3"/>
     </row>
-    <row r="773" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -24094,7 +24088,7 @@
       <c r="X773" s="3"/>
       <c r="Y773" s="3"/>
     </row>
-    <row r="774" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -24121,7 +24115,7 @@
       <c r="X774" s="3"/>
       <c r="Y774" s="3"/>
     </row>
-    <row r="775" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -24148,7 +24142,7 @@
       <c r="X775" s="3"/>
       <c r="Y775" s="3"/>
     </row>
-    <row r="776" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -24175,7 +24169,7 @@
       <c r="X776" s="3"/>
       <c r="Y776" s="3"/>
     </row>
-    <row r="777" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -24202,7 +24196,7 @@
       <c r="X777" s="3"/>
       <c r="Y777" s="3"/>
     </row>
-    <row r="778" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -24229,7 +24223,7 @@
       <c r="X778" s="3"/>
       <c r="Y778" s="3"/>
     </row>
-    <row r="779" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -24256,7 +24250,7 @@
       <c r="X779" s="3"/>
       <c r="Y779" s="3"/>
     </row>
-    <row r="780" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -24283,7 +24277,7 @@
       <c r="X780" s="3"/>
       <c r="Y780" s="3"/>
     </row>
-    <row r="781" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -24310,7 +24304,7 @@
       <c r="X781" s="3"/>
       <c r="Y781" s="3"/>
     </row>
-    <row r="782" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -24337,7 +24331,7 @@
       <c r="X782" s="3"/>
       <c r="Y782" s="3"/>
     </row>
-    <row r="783" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -24364,7 +24358,7 @@
       <c r="X783" s="3"/>
       <c r="Y783" s="3"/>
     </row>
-    <row r="784" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -24391,7 +24385,7 @@
       <c r="X784" s="3"/>
       <c r="Y784" s="3"/>
     </row>
-    <row r="785" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -24418,7 +24412,7 @@
       <c r="X785" s="3"/>
       <c r="Y785" s="3"/>
     </row>
-    <row r="786" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -24445,7 +24439,7 @@
       <c r="X786" s="3"/>
       <c r="Y786" s="3"/>
     </row>
-    <row r="787" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -24472,7 +24466,7 @@
       <c r="X787" s="3"/>
       <c r="Y787" s="3"/>
     </row>
-    <row r="788" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -24499,7 +24493,7 @@
       <c r="X788" s="3"/>
       <c r="Y788" s="3"/>
     </row>
-    <row r="789" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -24526,7 +24520,7 @@
       <c r="X789" s="3"/>
       <c r="Y789" s="3"/>
     </row>
-    <row r="790" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -24553,7 +24547,7 @@
       <c r="X790" s="3"/>
       <c r="Y790" s="3"/>
     </row>
-    <row r="791" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -24580,7 +24574,7 @@
       <c r="X791" s="3"/>
       <c r="Y791" s="3"/>
     </row>
-    <row r="792" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -24607,7 +24601,7 @@
       <c r="X792" s="3"/>
       <c r="Y792" s="3"/>
     </row>
-    <row r="793" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -24634,7 +24628,7 @@
       <c r="X793" s="3"/>
       <c r="Y793" s="3"/>
     </row>
-    <row r="794" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -24661,7 +24655,7 @@
       <c r="X794" s="3"/>
       <c r="Y794" s="3"/>
     </row>
-    <row r="795" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -24688,7 +24682,7 @@
       <c r="X795" s="3"/>
       <c r="Y795" s="3"/>
     </row>
-    <row r="796" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -24715,7 +24709,7 @@
       <c r="X796" s="3"/>
       <c r="Y796" s="3"/>
     </row>
-    <row r="797" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -24742,7 +24736,7 @@
       <c r="X797" s="3"/>
       <c r="Y797" s="3"/>
     </row>
-    <row r="798" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -24769,7 +24763,7 @@
       <c r="X798" s="3"/>
       <c r="Y798" s="3"/>
     </row>
-    <row r="799" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -24796,7 +24790,7 @@
       <c r="X799" s="3"/>
       <c r="Y799" s="3"/>
     </row>
-    <row r="800" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -24823,7 +24817,7 @@
       <c r="X800" s="3"/>
       <c r="Y800" s="3"/>
     </row>
-    <row r="801" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -24850,7 +24844,7 @@
       <c r="X801" s="3"/>
       <c r="Y801" s="3"/>
     </row>
-    <row r="802" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -24877,7 +24871,7 @@
       <c r="X802" s="3"/>
       <c r="Y802" s="3"/>
     </row>
-    <row r="803" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -24904,7 +24898,7 @@
       <c r="X803" s="3"/>
       <c r="Y803" s="3"/>
     </row>
-    <row r="804" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -24931,7 +24925,7 @@
       <c r="X804" s="3"/>
       <c r="Y804" s="3"/>
     </row>
-    <row r="805" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -24958,7 +24952,7 @@
       <c r="X805" s="3"/>
       <c r="Y805" s="3"/>
     </row>
-    <row r="806" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -24985,7 +24979,7 @@
       <c r="X806" s="3"/>
       <c r="Y806" s="3"/>
     </row>
-    <row r="807" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -25012,7 +25006,7 @@
       <c r="X807" s="3"/>
       <c r="Y807" s="3"/>
     </row>
-    <row r="808" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -25039,7 +25033,7 @@
       <c r="X808" s="3"/>
       <c r="Y808" s="3"/>
     </row>
-    <row r="809" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -25066,7 +25060,7 @@
       <c r="X809" s="3"/>
       <c r="Y809" s="3"/>
     </row>
-    <row r="810" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -25093,7 +25087,7 @@
       <c r="X810" s="3"/>
       <c r="Y810" s="3"/>
     </row>
-    <row r="811" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -25120,7 +25114,7 @@
       <c r="X811" s="3"/>
       <c r="Y811" s="3"/>
     </row>
-    <row r="812" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -25147,7 +25141,7 @@
       <c r="X812" s="3"/>
       <c r="Y812" s="3"/>
     </row>
-    <row r="813" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -25174,7 +25168,7 @@
       <c r="X813" s="3"/>
       <c r="Y813" s="3"/>
     </row>
-    <row r="814" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -25201,7 +25195,7 @@
       <c r="X814" s="3"/>
       <c r="Y814" s="3"/>
     </row>
-    <row r="815" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -25228,7 +25222,7 @@
       <c r="X815" s="3"/>
       <c r="Y815" s="3"/>
     </row>
-    <row r="816" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -25255,7 +25249,7 @@
       <c r="X816" s="3"/>
       <c r="Y816" s="3"/>
     </row>
-    <row r="817" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -25282,7 +25276,7 @@
       <c r="X817" s="3"/>
       <c r="Y817" s="3"/>
     </row>
-    <row r="818" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -25309,7 +25303,7 @@
       <c r="X818" s="3"/>
       <c r="Y818" s="3"/>
     </row>
-    <row r="819" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -25336,7 +25330,7 @@
       <c r="X819" s="3"/>
       <c r="Y819" s="3"/>
     </row>
-    <row r="820" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -25363,7 +25357,7 @@
       <c r="X820" s="3"/>
       <c r="Y820" s="3"/>
     </row>
-    <row r="821" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -25390,7 +25384,7 @@
       <c r="X821" s="3"/>
       <c r="Y821" s="3"/>
     </row>
-    <row r="822" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -25417,7 +25411,7 @@
       <c r="X822" s="3"/>
       <c r="Y822" s="3"/>
     </row>
-    <row r="823" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -25444,7 +25438,7 @@
       <c r="X823" s="3"/>
       <c r="Y823" s="3"/>
     </row>
-    <row r="824" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -25471,7 +25465,7 @@
       <c r="X824" s="3"/>
       <c r="Y824" s="3"/>
     </row>
-    <row r="825" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -25498,7 +25492,7 @@
       <c r="X825" s="3"/>
       <c r="Y825" s="3"/>
     </row>
-    <row r="826" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -25525,7 +25519,7 @@
       <c r="X826" s="3"/>
       <c r="Y826" s="3"/>
     </row>
-    <row r="827" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -25552,7 +25546,7 @@
       <c r="X827" s="3"/>
       <c r="Y827" s="3"/>
     </row>
-    <row r="828" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -25579,7 +25573,7 @@
       <c r="X828" s="3"/>
       <c r="Y828" s="3"/>
     </row>
-    <row r="829" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -25606,7 +25600,7 @@
       <c r="X829" s="3"/>
       <c r="Y829" s="3"/>
     </row>
-    <row r="830" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -25633,7 +25627,7 @@
       <c r="X830" s="3"/>
       <c r="Y830" s="3"/>
     </row>
-    <row r="831" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -25660,7 +25654,7 @@
       <c r="X831" s="3"/>
       <c r="Y831" s="3"/>
     </row>
-    <row r="832" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -25687,7 +25681,7 @@
       <c r="X832" s="3"/>
       <c r="Y832" s="3"/>
     </row>
-    <row r="833" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -25714,7 +25708,7 @@
       <c r="X833" s="3"/>
       <c r="Y833" s="3"/>
     </row>
-    <row r="834" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -25741,7 +25735,7 @@
       <c r="X834" s="3"/>
       <c r="Y834" s="3"/>
     </row>
-    <row r="835" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -25768,7 +25762,7 @@
       <c r="X835" s="3"/>
       <c r="Y835" s="3"/>
     </row>
-    <row r="836" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -25795,7 +25789,7 @@
       <c r="X836" s="3"/>
       <c r="Y836" s="3"/>
     </row>
-    <row r="837" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -25822,7 +25816,7 @@
       <c r="X837" s="3"/>
       <c r="Y837" s="3"/>
     </row>
-    <row r="838" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -25849,7 +25843,7 @@
       <c r="X838" s="3"/>
       <c r="Y838" s="3"/>
     </row>
-    <row r="839" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -25876,7 +25870,7 @@
       <c r="X839" s="3"/>
       <c r="Y839" s="3"/>
     </row>
-    <row r="840" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -25903,7 +25897,7 @@
       <c r="X840" s="3"/>
       <c r="Y840" s="3"/>
     </row>
-    <row r="841" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -25930,7 +25924,7 @@
       <c r="X841" s="3"/>
       <c r="Y841" s="3"/>
     </row>
-    <row r="842" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -25957,7 +25951,7 @@
       <c r="X842" s="3"/>
       <c r="Y842" s="3"/>
     </row>
-    <row r="843" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -25984,7 +25978,7 @@
       <c r="X843" s="3"/>
       <c r="Y843" s="3"/>
     </row>
-    <row r="844" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -26011,7 +26005,7 @@
       <c r="X844" s="3"/>
       <c r="Y844" s="3"/>
     </row>
-    <row r="845" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -26038,7 +26032,7 @@
       <c r="X845" s="3"/>
       <c r="Y845" s="3"/>
     </row>
-    <row r="846" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -26065,7 +26059,7 @@
       <c r="X846" s="3"/>
       <c r="Y846" s="3"/>
     </row>
-    <row r="847" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -26092,7 +26086,7 @@
       <c r="X847" s="3"/>
       <c r="Y847" s="3"/>
     </row>
-    <row r="848" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -26119,7 +26113,7 @@
       <c r="X848" s="3"/>
       <c r="Y848" s="3"/>
     </row>
-    <row r="849" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -26146,7 +26140,7 @@
       <c r="X849" s="3"/>
       <c r="Y849" s="3"/>
     </row>
-    <row r="850" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -26173,7 +26167,7 @@
       <c r="X850" s="3"/>
       <c r="Y850" s="3"/>
     </row>
-    <row r="851" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -26200,7 +26194,7 @@
       <c r="X851" s="3"/>
       <c r="Y851" s="3"/>
     </row>
-    <row r="852" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -26227,7 +26221,7 @@
       <c r="X852" s="3"/>
       <c r="Y852" s="3"/>
     </row>
-    <row r="853" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -26254,7 +26248,7 @@
       <c r="X853" s="3"/>
       <c r="Y853" s="3"/>
     </row>
-    <row r="854" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -26281,7 +26275,7 @@
       <c r="X854" s="3"/>
       <c r="Y854" s="3"/>
     </row>
-    <row r="855" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -26308,7 +26302,7 @@
       <c r="X855" s="3"/>
       <c r="Y855" s="3"/>
     </row>
-    <row r="856" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -26335,7 +26329,7 @@
       <c r="X856" s="3"/>
       <c r="Y856" s="3"/>
     </row>
-    <row r="857" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -26362,7 +26356,7 @@
       <c r="X857" s="3"/>
       <c r="Y857" s="3"/>
     </row>
-    <row r="858" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -26389,7 +26383,7 @@
       <c r="X858" s="3"/>
       <c r="Y858" s="3"/>
     </row>
-    <row r="859" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -26416,7 +26410,7 @@
       <c r="X859" s="3"/>
       <c r="Y859" s="3"/>
     </row>
-    <row r="860" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -26443,7 +26437,7 @@
       <c r="X860" s="3"/>
       <c r="Y860" s="3"/>
     </row>
-    <row r="861" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -26470,7 +26464,7 @@
       <c r="X861" s="3"/>
       <c r="Y861" s="3"/>
     </row>
-    <row r="862" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -26497,7 +26491,7 @@
       <c r="X862" s="3"/>
       <c r="Y862" s="3"/>
     </row>
-    <row r="863" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -26524,7 +26518,7 @@
       <c r="X863" s="3"/>
       <c r="Y863" s="3"/>
     </row>
-    <row r="864" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -26551,7 +26545,7 @@
       <c r="X864" s="3"/>
       <c r="Y864" s="3"/>
     </row>
-    <row r="865" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -26578,7 +26572,7 @@
       <c r="X865" s="3"/>
       <c r="Y865" s="3"/>
     </row>
-    <row r="866" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -26605,7 +26599,7 @@
       <c r="X866" s="3"/>
       <c r="Y866" s="3"/>
     </row>
-    <row r="867" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -26632,7 +26626,7 @@
       <c r="X867" s="3"/>
       <c r="Y867" s="3"/>
     </row>
-    <row r="868" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -26659,7 +26653,7 @@
       <c r="X868" s="3"/>
       <c r="Y868" s="3"/>
     </row>
-    <row r="869" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -26686,7 +26680,7 @@
       <c r="X869" s="3"/>
       <c r="Y869" s="3"/>
     </row>
-    <row r="870" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -26713,7 +26707,7 @@
       <c r="X870" s="3"/>
       <c r="Y870" s="3"/>
     </row>
-    <row r="871" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -26740,7 +26734,7 @@
       <c r="X871" s="3"/>
       <c r="Y871" s="3"/>
     </row>
-    <row r="872" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -26767,7 +26761,7 @@
       <c r="X872" s="3"/>
       <c r="Y872" s="3"/>
     </row>
-    <row r="873" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -26794,7 +26788,7 @@
       <c r="X873" s="3"/>
       <c r="Y873" s="3"/>
     </row>
-    <row r="874" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -26821,7 +26815,7 @@
       <c r="X874" s="3"/>
       <c r="Y874" s="3"/>
     </row>
-    <row r="875" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -26848,7 +26842,7 @@
       <c r="X875" s="3"/>
       <c r="Y875" s="3"/>
     </row>
-    <row r="876" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -26875,7 +26869,7 @@
       <c r="X876" s="3"/>
       <c r="Y876" s="3"/>
     </row>
-    <row r="877" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -26902,7 +26896,7 @@
       <c r="X877" s="3"/>
       <c r="Y877" s="3"/>
     </row>
-    <row r="878" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -26929,7 +26923,7 @@
       <c r="X878" s="3"/>
       <c r="Y878" s="3"/>
     </row>
-    <row r="879" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -26956,7 +26950,7 @@
       <c r="X879" s="3"/>
       <c r="Y879" s="3"/>
     </row>
-    <row r="880" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -26983,7 +26977,7 @@
       <c r="X880" s="3"/>
       <c r="Y880" s="3"/>
     </row>
-    <row r="881" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -27010,7 +27004,7 @@
       <c r="X881" s="3"/>
       <c r="Y881" s="3"/>
     </row>
-    <row r="882" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -27037,7 +27031,7 @@
       <c r="X882" s="3"/>
       <c r="Y882" s="3"/>
     </row>
-    <row r="883" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -27064,7 +27058,7 @@
       <c r="X883" s="3"/>
       <c r="Y883" s="3"/>
     </row>
-    <row r="884" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -27091,7 +27085,7 @@
       <c r="X884" s="3"/>
       <c r="Y884" s="3"/>
     </row>
-    <row r="885" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -27118,7 +27112,7 @@
       <c r="X885" s="3"/>
       <c r="Y885" s="3"/>
     </row>
-    <row r="886" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -27145,7 +27139,7 @@
       <c r="X886" s="3"/>
       <c r="Y886" s="3"/>
     </row>
-    <row r="887" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -27172,7 +27166,7 @@
       <c r="X887" s="3"/>
       <c r="Y887" s="3"/>
     </row>
-    <row r="888" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -27199,7 +27193,7 @@
       <c r="X888" s="3"/>
       <c r="Y888" s="3"/>
     </row>
-    <row r="889" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -27226,7 +27220,7 @@
       <c r="X889" s="3"/>
       <c r="Y889" s="3"/>
     </row>
-    <row r="890" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -27253,7 +27247,7 @@
       <c r="X890" s="3"/>
       <c r="Y890" s="3"/>
     </row>
-    <row r="891" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -27280,7 +27274,7 @@
       <c r="X891" s="3"/>
       <c r="Y891" s="3"/>
     </row>
-    <row r="892" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -27307,7 +27301,7 @@
       <c r="X892" s="3"/>
       <c r="Y892" s="3"/>
     </row>
-    <row r="893" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -27334,7 +27328,7 @@
       <c r="X893" s="3"/>
       <c r="Y893" s="3"/>
     </row>
-    <row r="894" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -27361,7 +27355,7 @@
       <c r="X894" s="3"/>
       <c r="Y894" s="3"/>
     </row>
-    <row r="895" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -27388,7 +27382,7 @@
       <c r="X895" s="3"/>
       <c r="Y895" s="3"/>
     </row>
-    <row r="896" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -27415,7 +27409,7 @@
       <c r="X896" s="3"/>
       <c r="Y896" s="3"/>
     </row>
-    <row r="897" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -27442,7 +27436,7 @@
       <c r="X897" s="3"/>
       <c r="Y897" s="3"/>
     </row>
-    <row r="898" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -27469,7 +27463,7 @@
       <c r="X898" s="3"/>
       <c r="Y898" s="3"/>
     </row>
-    <row r="899" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -27496,7 +27490,7 @@
       <c r="X899" s="3"/>
       <c r="Y899" s="3"/>
     </row>
-    <row r="900" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -27523,7 +27517,7 @@
       <c r="X900" s="3"/>
       <c r="Y900" s="3"/>
     </row>
-    <row r="901" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -27550,7 +27544,7 @@
       <c r="X901" s="3"/>
       <c r="Y901" s="3"/>
     </row>
-    <row r="902" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -27577,7 +27571,7 @@
       <c r="X902" s="3"/>
       <c r="Y902" s="3"/>
     </row>
-    <row r="903" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -27604,7 +27598,7 @@
       <c r="X903" s="3"/>
       <c r="Y903" s="3"/>
     </row>
-    <row r="904" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -27631,7 +27625,7 @@
       <c r="X904" s="3"/>
       <c r="Y904" s="3"/>
     </row>
-    <row r="905" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -27658,7 +27652,7 @@
       <c r="X905" s="3"/>
       <c r="Y905" s="3"/>
     </row>
-    <row r="906" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -27685,7 +27679,7 @@
       <c r="X906" s="3"/>
       <c r="Y906" s="3"/>
     </row>
-    <row r="907" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -27712,7 +27706,7 @@
       <c r="X907" s="3"/>
       <c r="Y907" s="3"/>
     </row>
-    <row r="908" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -27739,7 +27733,7 @@
       <c r="X908" s="3"/>
       <c r="Y908" s="3"/>
     </row>
-    <row r="909" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -27766,7 +27760,7 @@
       <c r="X909" s="3"/>
       <c r="Y909" s="3"/>
     </row>
-    <row r="910" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -27793,7 +27787,7 @@
       <c r="X910" s="3"/>
       <c r="Y910" s="3"/>
     </row>
-    <row r="911" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -27820,7 +27814,7 @@
       <c r="X911" s="3"/>
       <c r="Y911" s="3"/>
     </row>
-    <row r="912" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -27847,7 +27841,7 @@
       <c r="X912" s="3"/>
       <c r="Y912" s="3"/>
     </row>
-    <row r="913" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -27874,7 +27868,7 @@
       <c r="X913" s="3"/>
       <c r="Y913" s="3"/>
     </row>
-    <row r="914" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -27901,7 +27895,7 @@
       <c r="X914" s="3"/>
       <c r="Y914" s="3"/>
     </row>
-    <row r="915" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -27928,7 +27922,7 @@
       <c r="X915" s="3"/>
       <c r="Y915" s="3"/>
     </row>
-    <row r="916" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -27955,7 +27949,7 @@
       <c r="X916" s="3"/>
       <c r="Y916" s="3"/>
     </row>
-    <row r="917" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -27982,7 +27976,7 @@
       <c r="X917" s="3"/>
       <c r="Y917" s="3"/>
     </row>
-    <row r="918" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -28009,7 +28003,7 @@
       <c r="X918" s="3"/>
       <c r="Y918" s="3"/>
     </row>
-    <row r="919" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -28036,7 +28030,7 @@
       <c r="X919" s="3"/>
       <c r="Y919" s="3"/>
     </row>
-    <row r="920" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -28063,7 +28057,7 @@
       <c r="X920" s="3"/>
       <c r="Y920" s="3"/>
     </row>
-    <row r="921" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -28090,7 +28084,7 @@
       <c r="X921" s="3"/>
       <c r="Y921" s="3"/>
     </row>
-    <row r="922" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -28117,7 +28111,7 @@
       <c r="X922" s="3"/>
       <c r="Y922" s="3"/>
     </row>
-    <row r="923" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -28144,7 +28138,7 @@
       <c r="X923" s="3"/>
       <c r="Y923" s="3"/>
     </row>
-    <row r="924" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -28171,7 +28165,7 @@
       <c r="X924" s="3"/>
       <c r="Y924" s="3"/>
     </row>
-    <row r="925" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -28198,7 +28192,7 @@
       <c r="X925" s="3"/>
       <c r="Y925" s="3"/>
     </row>
-    <row r="926" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -28225,7 +28219,7 @@
       <c r="X926" s="3"/>
       <c r="Y926" s="3"/>
     </row>
-    <row r="927" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -28252,7 +28246,7 @@
       <c r="X927" s="3"/>
       <c r="Y927" s="3"/>
     </row>
-    <row r="928" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -28279,7 +28273,7 @@
       <c r="X928" s="3"/>
       <c r="Y928" s="3"/>
     </row>
-    <row r="929" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -28306,7 +28300,7 @@
       <c r="X929" s="3"/>
       <c r="Y929" s="3"/>
     </row>
-    <row r="930" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -28333,7 +28327,7 @@
       <c r="X930" s="3"/>
       <c r="Y930" s="3"/>
     </row>
-    <row r="931" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -28360,7 +28354,7 @@
       <c r="X931" s="3"/>
       <c r="Y931" s="3"/>
     </row>
-    <row r="932" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -28387,7 +28381,7 @@
       <c r="X932" s="3"/>
       <c r="Y932" s="3"/>
     </row>
-    <row r="933" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -28414,7 +28408,7 @@
       <c r="X933" s="3"/>
       <c r="Y933" s="3"/>
     </row>
-    <row r="934" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -28441,7 +28435,7 @@
       <c r="X934" s="3"/>
       <c r="Y934" s="3"/>
     </row>
-    <row r="935" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -28468,7 +28462,7 @@
       <c r="X935" s="3"/>
       <c r="Y935" s="3"/>
     </row>
-    <row r="936" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -28495,7 +28489,7 @@
       <c r="X936" s="3"/>
       <c r="Y936" s="3"/>
     </row>
-    <row r="937" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -28522,7 +28516,7 @@
       <c r="X937" s="3"/>
       <c r="Y937" s="3"/>
     </row>
-    <row r="938" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -28549,7 +28543,7 @@
       <c r="X938" s="3"/>
       <c r="Y938" s="3"/>
     </row>
-    <row r="939" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -28576,7 +28570,7 @@
       <c r="X939" s="3"/>
       <c r="Y939" s="3"/>
     </row>
-    <row r="940" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -28603,7 +28597,7 @@
       <c r="X940" s="3"/>
       <c r="Y940" s="3"/>
     </row>
-    <row r="941" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -28630,7 +28624,7 @@
       <c r="X941" s="3"/>
       <c r="Y941" s="3"/>
     </row>
-    <row r="942" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -28657,7 +28651,7 @@
       <c r="X942" s="3"/>
       <c r="Y942" s="3"/>
     </row>
-    <row r="943" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -28684,7 +28678,7 @@
       <c r="X943" s="3"/>
       <c r="Y943" s="3"/>
     </row>
-    <row r="944" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -28711,7 +28705,7 @@
       <c r="X944" s="3"/>
       <c r="Y944" s="3"/>
     </row>
-    <row r="945" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -28738,7 +28732,7 @@
       <c r="X945" s="3"/>
       <c r="Y945" s="3"/>
     </row>
-    <row r="946" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -28765,7 +28759,7 @@
       <c r="X946" s="3"/>
       <c r="Y946" s="3"/>
     </row>
-    <row r="947" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -28792,7 +28786,7 @@
       <c r="X947" s="3"/>
       <c r="Y947" s="3"/>
     </row>
-    <row r="948" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -28819,7 +28813,7 @@
       <c r="X948" s="3"/>
       <c r="Y948" s="3"/>
     </row>
-    <row r="949" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -28846,7 +28840,7 @@
       <c r="X949" s="3"/>
       <c r="Y949" s="3"/>
     </row>
-    <row r="950" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -28873,7 +28867,7 @@
       <c r="X950" s="3"/>
       <c r="Y950" s="3"/>
     </row>
-    <row r="951" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -28900,7 +28894,7 @@
       <c r="X951" s="3"/>
       <c r="Y951" s="3"/>
     </row>
-    <row r="952" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -28927,7 +28921,7 @@
       <c r="X952" s="3"/>
       <c r="Y952" s="3"/>
     </row>
-    <row r="953" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -28954,7 +28948,7 @@
       <c r="X953" s="3"/>
       <c r="Y953" s="3"/>
     </row>
-    <row r="954" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -28981,7 +28975,7 @@
       <c r="X954" s="3"/>
       <c r="Y954" s="3"/>
     </row>
-    <row r="955" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -29008,7 +29002,7 @@
       <c r="X955" s="3"/>
       <c r="Y955" s="3"/>
     </row>
-    <row r="956" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -29035,7 +29029,7 @@
       <c r="X956" s="3"/>
       <c r="Y956" s="3"/>
     </row>
-    <row r="957" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -29062,7 +29056,7 @@
       <c r="X957" s="3"/>
       <c r="Y957" s="3"/>
     </row>
-    <row r="958" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -29089,7 +29083,7 @@
       <c r="X958" s="3"/>
       <c r="Y958" s="3"/>
     </row>
-    <row r="959" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -29116,7 +29110,7 @@
       <c r="X959" s="3"/>
       <c r="Y959" s="3"/>
     </row>
-    <row r="960" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -29143,7 +29137,7 @@
       <c r="X960" s="3"/>
       <c r="Y960" s="3"/>
     </row>
-    <row r="961" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -29170,7 +29164,7 @@
       <c r="X961" s="3"/>
       <c r="Y961" s="3"/>
     </row>
-    <row r="962" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -29197,7 +29191,7 @@
       <c r="X962" s="3"/>
       <c r="Y962" s="3"/>
     </row>
-    <row r="963" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -29224,7 +29218,7 @@
       <c r="X963" s="3"/>
       <c r="Y963" s="3"/>
     </row>
-    <row r="964" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -29251,7 +29245,7 @@
       <c r="X964" s="3"/>
       <c r="Y964" s="3"/>
     </row>
-    <row r="965" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -29278,7 +29272,7 @@
       <c r="X965" s="3"/>
       <c r="Y965" s="3"/>
     </row>
-    <row r="966" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -29305,7 +29299,7 @@
       <c r="X966" s="3"/>
       <c r="Y966" s="3"/>
     </row>
-    <row r="967" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -29332,7 +29326,7 @@
       <c r="X967" s="3"/>
       <c r="Y967" s="3"/>
     </row>
-    <row r="968" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -29359,7 +29353,7 @@
       <c r="X968" s="3"/>
       <c r="Y968" s="3"/>
     </row>
-    <row r="969" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -29386,7 +29380,7 @@
       <c r="X969" s="3"/>
       <c r="Y969" s="3"/>
     </row>
-    <row r="970" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -29413,7 +29407,7 @@
       <c r="X970" s="3"/>
       <c r="Y970" s="3"/>
     </row>
-    <row r="971" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -29440,7 +29434,7 @@
       <c r="X971" s="3"/>
       <c r="Y971" s="3"/>
     </row>
-    <row r="972" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -29467,7 +29461,7 @@
       <c r="X972" s="3"/>
       <c r="Y972" s="3"/>
     </row>
-    <row r="973" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -29494,7 +29488,7 @@
       <c r="X973" s="3"/>
       <c r="Y973" s="3"/>
     </row>
-    <row r="974" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -29521,7 +29515,7 @@
       <c r="X974" s="3"/>
       <c r="Y974" s="3"/>
     </row>
-    <row r="975" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -29548,7 +29542,7 @@
       <c r="X975" s="3"/>
       <c r="Y975" s="3"/>
     </row>
-    <row r="976" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -29575,7 +29569,7 @@
       <c r="X976" s="3"/>
       <c r="Y976" s="3"/>
     </row>
-    <row r="977" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -29602,7 +29596,7 @@
       <c r="X977" s="3"/>
       <c r="Y977" s="3"/>
     </row>
-    <row r="978" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -29629,7 +29623,7 @@
       <c r="X978" s="3"/>
       <c r="Y978" s="3"/>
     </row>
-    <row r="979" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -29656,7 +29650,7 @@
       <c r="X979" s="3"/>
       <c r="Y979" s="3"/>
     </row>
-    <row r="980" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -29683,7 +29677,7 @@
       <c r="X980" s="3"/>
       <c r="Y980" s="3"/>
     </row>
-    <row r="981" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -29710,7 +29704,7 @@
       <c r="X981" s="3"/>
       <c r="Y981" s="3"/>
     </row>
-    <row r="982" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -29737,7 +29731,7 @@
       <c r="X982" s="3"/>
       <c r="Y982" s="3"/>
     </row>
-    <row r="983" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -29764,7 +29758,7 @@
       <c r="X983" s="3"/>
       <c r="Y983" s="3"/>
     </row>
-    <row r="984" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -29791,7 +29785,7 @@
       <c r="X984" s="3"/>
       <c r="Y984" s="3"/>
     </row>
-    <row r="985" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -29818,7 +29812,7 @@
       <c r="X985" s="3"/>
       <c r="Y985" s="3"/>
     </row>
-    <row r="986" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -29845,7 +29839,7 @@
       <c r="X986" s="3"/>
       <c r="Y986" s="3"/>
     </row>
-    <row r="987" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -29872,7 +29866,7 @@
       <c r="X987" s="3"/>
       <c r="Y987" s="3"/>
     </row>
-    <row r="988" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -29899,7 +29893,7 @@
       <c r="X988" s="3"/>
       <c r="Y988" s="3"/>
     </row>
-    <row r="989" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -29926,7 +29920,7 @@
       <c r="X989" s="3"/>
       <c r="Y989" s="3"/>
     </row>
-    <row r="990" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -29953,7 +29947,7 @@
       <c r="X990" s="3"/>
       <c r="Y990" s="3"/>
     </row>
-    <row r="991" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -29980,7 +29974,7 @@
       <c r="X991" s="3"/>
       <c r="Y991" s="3"/>
     </row>
-    <row r="992" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -30007,7 +30001,7 @@
       <c r="X992" s="3"/>
       <c r="Y992" s="3"/>
     </row>
-    <row r="993" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -30034,7 +30028,7 @@
       <c r="X993" s="3"/>
       <c r="Y993" s="3"/>
     </row>
-    <row r="994" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -30061,7 +30055,7 @@
       <c r="X994" s="3"/>
       <c r="Y994" s="3"/>
     </row>
-    <row r="995" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -30088,7 +30082,7 @@
       <c r="X995" s="3"/>
       <c r="Y995" s="3"/>
     </row>
-    <row r="996" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -30115,7 +30109,7 @@
       <c r="X996" s="3"/>
       <c r="Y996" s="3"/>
     </row>
-    <row r="997" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -30142,7 +30136,7 @@
       <c r="X997" s="3"/>
       <c r="Y997" s="3"/>
     </row>
-    <row r="998" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -30169,7 +30163,7 @@
       <c r="X998" s="3"/>
       <c r="Y998" s="3"/>
     </row>
-    <row r="999" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
